--- a/Giuseppe/project 9/lab9_10_1.xlsx
+++ b/Giuseppe/project 9/lab9_10_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EE2E20-7E17-4615-A509-A1B8D42BB0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623CBE4D-BFF5-454A-9F8E-60D89EBB24C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{95A3C49D-62D7-4399-8090-8506A2A22D63}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{95A3C49D-62D7-4399-8090-8506A2A22D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Q TST1 " sheetId="2" r:id="rId1"/>
@@ -1612,30 +1612,6 @@
   </cellStyles>
   <dxfs count="152">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8"/>
-        </right>
-        <top style="thin">
-          <color theme="8"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -2060,6 +2036,30 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6643,68 +6643,68 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1721F6CD-AA9D-4B8E-9BD9-D334085D7D57}" name="Tabella33317" displayName="Tabella33317" ref="A1:H2" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1721F6CD-AA9D-4B8E-9BD9-D334085D7D57}" name="Tabella33317" displayName="Tabella33317" ref="A1:H2" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:H2" xr:uid="{1721F6CD-AA9D-4B8E-9BD9-D334085D7D57}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{58FCA508-19F5-4E4B-A5AC-F564F9130662}" name="Pi Greco" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{58FCA508-19F5-4E4B-A5AC-F564F9130662}" name="Pi Greco" dataDxfId="87">
       <calculatedColumnFormula>PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A68F0DFD-5C6F-45D2-9D34-FD23C6211421}" name="Massa [kg]" dataDxfId="90">
+    <tableColumn id="2" xr3:uid="{A68F0DFD-5C6F-45D2-9D34-FD23C6211421}" name="Massa [kg]" dataDxfId="86">
       <calculatedColumnFormula>1.66E-27*Tabella33317[[#This Row],[Massa '[g/mol']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E6DDCC9B-235F-48AA-858E-321B89751596}" name="Boltzmann k" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{4A4EAFFB-A43E-48F2-8636-1D6B4AE84C82}" name="Planck h" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{4242CFC7-7660-47DE-9D4F-E4842FEDD82A}" name="Rydberg R" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{3A109CF5-F413-40D2-9172-9C45F1AB0D0A}" name="Avogadro N" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{8F7FB109-8AA9-496C-9EC9-4D4178D0DFDA}" name="Massa [g/mol]" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{9ED72F5C-75E4-409A-8FFE-394D81E0EB46}" name="N" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{E6DDCC9B-235F-48AA-858E-321B89751596}" name="Boltzmann k" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{4A4EAFFB-A43E-48F2-8636-1D6B4AE84C82}" name="Planck h" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{4242CFC7-7660-47DE-9D4F-E4842FEDD82A}" name="Rydberg R" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{3A109CF5-F413-40D2-9172-9C45F1AB0D0A}" name="Avogadro N" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{8F7FB109-8AA9-496C-9EC9-4D4178D0DFDA}" name="Massa [g/mol]" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{9ED72F5C-75E4-409A-8FFE-394D81E0EB46}" name="N" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5D833A30-F61C-4ABC-BB9E-F7C580C63E21}" name="Tabella63618" displayName="Tabella63618" ref="A8:C9" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5D833A30-F61C-4ABC-BB9E-F7C580C63E21}" name="Tabella63618" displayName="Tabella63618" ref="A8:C9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A8:C9" xr:uid="{5D833A30-F61C-4ABC-BB9E-F7C580C63E21}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{191AE0D2-F53A-4459-AA62-729FC1128CBC}" name="Simmetria" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{FE603C89-B7B3-491D-9E01-6202E06D5781}" name="Gel" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{1C71A31C-F367-4947-B1F9-758B07FAF78B}" name="Eel" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{191AE0D2-F53A-4459-AA62-729FC1128CBC}" name="Simmetria" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{FE603C89-B7B3-491D-9E01-6202E06D5781}" name="Gel" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{1C71A31C-F367-4947-B1F9-758B07FAF78B}" name="Eel" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E8C0B89D-2213-47B3-9495-61489F2D40C4}" name="Tabella83719" displayName="Tabella83719" ref="A14:J32" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E8C0B89D-2213-47B3-9495-61489F2D40C4}" name="Tabella83719" displayName="Tabella83719" ref="A14:J32" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A14:J32" xr:uid="{E8C0B89D-2213-47B3-9495-61489F2D40C4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F895CFDD-F5D7-4117-B39F-E7141F2BB7CD}" name="Temperatura" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{AE17A643-43D3-4D70-9BF3-32EDCAA66C51}" name="Qvib1" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{F895CFDD-F5D7-4117-B39F-E7141F2BB7CD}" name="Temperatura" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{AE17A643-43D3-4D70-9BF3-32EDCAA66C51}" name="Qvib1" dataDxfId="71">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza1])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza1])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9324BA0A-8611-4053-B81E-09657D2AA740}" name="Qvib2" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{9324BA0A-8611-4053-B81E-09657D2AA740}" name="Qvib2" dataDxfId="70">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza2])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza2])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B2A4D439-3FF0-47DE-B545-922A07ECAACE}" name="Qvib3" dataDxfId="73">
+    <tableColumn id="4" xr3:uid="{B2A4D439-3FF0-47DE-B545-922A07ECAACE}" name="Qvib3" dataDxfId="69">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza3])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza3])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E1968E6-5022-481A-935C-1734CABF556C}" name="Qvib4" dataDxfId="72">
+    <tableColumn id="5" xr3:uid="{1E1968E6-5022-481A-935C-1734CABF556C}" name="Qvib4" dataDxfId="68">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza4])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza4])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4E8C703B-2D07-42C9-88EC-7DA4012FAC21}" name="Qvib5" dataDxfId="71">
+    <tableColumn id="6" xr3:uid="{4E8C703B-2D07-42C9-88EC-7DA4012FAC21}" name="Qvib5" dataDxfId="67">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza5])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza5])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D3C8F9DC-E0B4-459A-8A44-96E1F538DC48}" name="Qvib6" dataDxfId="70">
+    <tableColumn id="7" xr3:uid="{D3C8F9DC-E0B4-459A-8A44-96E1F538DC48}" name="Qvib6" dataDxfId="66">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza6])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza6])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D84E72C7-8622-4BB5-8895-0D485CF819F9}" name="Qvib7" dataDxfId="69">
+    <tableColumn id="8" xr3:uid="{D84E72C7-8622-4BB5-8895-0D485CF819F9}" name="Qvib7" dataDxfId="65">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza7])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza7])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C74AE25A-2B17-4E6F-BA7D-BE901032717C}" name="Qvib8" dataDxfId="68">
+    <tableColumn id="9" xr3:uid="{C74AE25A-2B17-4E6F-BA7D-BE901032717C}" name="Qvib8" dataDxfId="64">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza8])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza8])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B87DEC06-0A9D-4211-B8C7-DF4ECEBFC579}" name="Qvib9" dataDxfId="67">
+    <tableColumn id="10" xr3:uid="{B87DEC06-0A9D-4211-B8C7-DF4ECEBFC579}" name="Qvib9" dataDxfId="63">
       <calculatedColumnFormula array="1">EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza9])/(Tabella33317[Boltzmann k]*2*Tabella83719[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella33317[Planck h]*Tabella93820[Frequenza9])/(Tabella33317[Boltzmann k]*Tabella83719[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6713,34 +6713,34 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E434E0AD-D8D0-45CB-A067-016177468A8B}" name="Tabella93820" displayName="Tabella93820" ref="B12:J13" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E434E0AD-D8D0-45CB-A067-016177468A8B}" name="Tabella93820" displayName="Tabella93820" ref="B12:J13" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="B12:J13" xr:uid="{E434E0AD-D8D0-45CB-A067-016177468A8B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{55D2FED3-34D8-4C32-A58A-ADA5A86D3F45}" name="Frequenza1" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{55D2FED3-34D8-4C32-A58A-ADA5A86D3F45}" name="Frequenza1" dataDxfId="60">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza1]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6F0BAE9C-1DC7-42DE-AA21-6B7558E1BF67}" name="Frequenza2" dataDxfId="63">
+    <tableColumn id="2" xr3:uid="{6F0BAE9C-1DC7-42DE-AA21-6B7558E1BF67}" name="Frequenza2" dataDxfId="59">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza2]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C5AF979B-9DC3-467B-830D-E61AB45D61F1}" name="Frequenza3" dataDxfId="62">
+    <tableColumn id="3" xr3:uid="{C5AF979B-9DC3-467B-830D-E61AB45D61F1}" name="Frequenza3" dataDxfId="58">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza3]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6442D838-A3AC-4F75-957D-84D25BB24AD5}" name="Frequenza4" dataDxfId="61">
+    <tableColumn id="4" xr3:uid="{6442D838-A3AC-4F75-957D-84D25BB24AD5}" name="Frequenza4" dataDxfId="57">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza4]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{959C43E2-E947-4719-BACF-2AFE982C1D54}" name="Frequenza5" dataDxfId="60">
+    <tableColumn id="5" xr3:uid="{959C43E2-E947-4719-BACF-2AFE982C1D54}" name="Frequenza5" dataDxfId="56">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza5]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{03C6CAC4-42D8-442B-A330-8EEB6CBDD5B0}" name="Frequenza6" dataDxfId="59">
+    <tableColumn id="6" xr3:uid="{03C6CAC4-42D8-442B-A330-8EEB6CBDD5B0}" name="Frequenza6" dataDxfId="55">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza6]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DFBC16B3-F3B3-4854-B158-C2C2972605A5}" name="Frequenza7" dataDxfId="58">
+    <tableColumn id="7" xr3:uid="{DFBC16B3-F3B3-4854-B158-C2C2972605A5}" name="Frequenza7" dataDxfId="54">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza7]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADFD4A6B-934D-45DF-8388-36481CB845C8}" name="Frequenza8" dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{ADFD4A6B-934D-45DF-8388-36481CB845C8}" name="Frequenza8" dataDxfId="53">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza8]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AEF7AA11-ACDA-415E-A3A5-8F8197A6DF18}" name="Frequenza9" dataDxfId="56">
+    <tableColumn id="9" xr3:uid="{AEF7AA11-ACDA-415E-A3A5-8F8197A6DF18}" name="Frequenza9" dataDxfId="52">
       <calculatedColumnFormula array="1">Tabella9314721[Frequenza9]*29979300000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6749,80 +6749,80 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0783DD9A-FD84-4927-9E4E-244A8DEEEF3C}" name="Tabella9314721" displayName="Tabella9314721" ref="B10:J11" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0783DD9A-FD84-4927-9E4E-244A8DEEEF3C}" name="Tabella9314721" displayName="Tabella9314721" ref="B10:J11" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="B10:J11" xr:uid="{0783DD9A-FD84-4927-9E4E-244A8DEEEF3C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4074E264-1902-49F7-B6A3-BBB73CBC9EA2}" name="Frequenza1" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{B0375BEF-82FB-43F5-A290-41B891ACB550}" name="Frequenza2" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{38F24D92-EEFC-4E4B-99B0-79D15CB1FF5D}" name="Frequenza3" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{1DA531A2-9655-448F-BE59-525A95F07F6E}" name="Frequenza4" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{7ABB9FCB-9934-4CBB-9D2A-B2AF6716796E}" name="Frequenza5" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{425943D3-185A-4894-9089-39561CEC0005}" name="Frequenza6" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{61EB164C-3975-4EDA-9517-D334FE18D196}" name="Frequenza7" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{57E57344-96C1-433F-99DD-232865CC0311}" name="Frequenza8" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{B1D26A5F-A501-4C94-9476-60E72723D564}" name="Frequenza9" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{4074E264-1902-49F7-B6A3-BBB73CBC9EA2}" name="Frequenza1" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{B0375BEF-82FB-43F5-A290-41B891ACB550}" name="Frequenza2" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{38F24D92-EEFC-4E4B-99B0-79D15CB1FF5D}" name="Frequenza3" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{1DA531A2-9655-448F-BE59-525A95F07F6E}" name="Frequenza4" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{7ABB9FCB-9934-4CBB-9D2A-B2AF6716796E}" name="Frequenza5" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{425943D3-185A-4894-9089-39561CEC0005}" name="Frequenza6" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{61EB164C-3975-4EDA-9517-D334FE18D196}" name="Frequenza7" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{57E57344-96C1-433F-99DD-232865CC0311}" name="Frequenza8" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{B1D26A5F-A501-4C94-9476-60E72723D564}" name="Frequenza9" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{83DA9F55-3028-4A79-ADA3-D7993414B6EC}" name="Tabella333178" displayName="Tabella333178" ref="A1:H2" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{83DA9F55-3028-4A79-ADA3-D7993414B6EC}" name="Tabella333178" displayName="Tabella333178" ref="A1:H2" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:H2" xr:uid="{83DA9F55-3028-4A79-ADA3-D7993414B6EC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D5E9F033-D4FD-43FC-A793-5EE7976656EB}" name="Pi Greco" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{D5E9F033-D4FD-43FC-A793-5EE7976656EB}" name="Pi Greco" dataDxfId="38">
       <calculatedColumnFormula>PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{165202B4-3786-409E-BE80-5E1ED3558022}" name="Massa [kg]" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{165202B4-3786-409E-BE80-5E1ED3558022}" name="Massa [kg]" dataDxfId="37">
       <calculatedColumnFormula>1.66E-27*Tabella333178[[#This Row],[Massa '[g/mol']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2111AD05-3E00-4E1A-A281-2ACFAA32E9DC}" name="Boltzmann k" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{7F6A2E1B-2493-46EC-85D5-E4057F3797B4}" name="Planck h" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{A6A3876F-0BB4-4E08-A028-BF9CF8925739}" name="Rydberg R" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{F03A4391-0E7E-4990-B02D-046B92440643}" name="Avogadro N" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{BC6C2061-2802-4FEF-A2FF-37E93C60B2A0}" name="Massa [g/mol]" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{9BFA1A35-FDAE-4117-ABCD-66A0B185DAFF}" name="N" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{2111AD05-3E00-4E1A-A281-2ACFAA32E9DC}" name="Boltzmann k" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{7F6A2E1B-2493-46EC-85D5-E4057F3797B4}" name="Planck h" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{A6A3876F-0BB4-4E08-A028-BF9CF8925739}" name="Rydberg R" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{F03A4391-0E7E-4990-B02D-046B92440643}" name="Avogadro N" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{BC6C2061-2802-4FEF-A2FF-37E93C60B2A0}" name="Massa [g/mol]" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{9BFA1A35-FDAE-4117-ABCD-66A0B185DAFF}" name="N" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E441EF6A-2451-44A0-8C4C-93892B61AB62}" name="Tabella6362033" displayName="Tabella6362033" ref="A8:C9" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E441EF6A-2451-44A0-8C4C-93892B61AB62}" name="Tabella6362033" displayName="Tabella6362033" ref="A8:C9" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A8:C9" xr:uid="{E441EF6A-2451-44A0-8C4C-93892B61AB62}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3E713987-ABBE-4F7D-9BBC-8E78A24A5712}" name="Simmetria" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{C3954A03-C973-49A3-BEB9-AECBB52F1392}" name="Gel" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{933D4340-2576-43AF-A966-8E54B391C90F}" name="Eel" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{3E713987-ABBE-4F7D-9BBC-8E78A24A5712}" name="Simmetria" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{C3954A03-C973-49A3-BEB9-AECBB52F1392}" name="Gel" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{933D4340-2576-43AF-A966-8E54B391C90F}" name="Eel" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E1D91AE5-7909-4ACF-86F7-E19734E30DAC}" name="Tabella8372135" displayName="Tabella8372135" ref="A14:H32" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E1D91AE5-7909-4ACF-86F7-E19734E30DAC}" name="Tabella8372135" displayName="Tabella8372135" ref="A14:H32" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A14:H32" xr:uid="{E1D91AE5-7909-4ACF-86F7-E19734E30DAC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9FBD407B-DE8A-4907-80CC-F2CD45F8D0D7}" name="Temperatura" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{4A1E119F-352B-456D-B5CE-D7F86695C276}" name="Qvib1" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{9FBD407B-DE8A-4907-80CC-F2CD45F8D0D7}" name="Temperatura" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4A1E119F-352B-456D-B5CE-D7F86695C276}" name="Qvib1" dataDxfId="22">
       <calculatedColumnFormula array="1">EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza1])/(Tabella333178[Boltzmann k]*2*Tabella8372135[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza1])/(Tabella333178[Boltzmann k]*Tabella8372135[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BF45C538-FB63-47D5-BABC-1F64CD100018}" name="Qvib2" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{BF45C538-FB63-47D5-BABC-1F64CD100018}" name="Qvib2" dataDxfId="21">
       <calculatedColumnFormula array="1">EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza2])/(Tabella333178[Boltzmann k]*2*Tabella8372135[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza2])/(Tabella333178[Boltzmann k]*Tabella8372135[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F4E2AD6A-E8BD-4EAF-8A7B-2EB6F329C31D}" name="Qvib3" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{F4E2AD6A-E8BD-4EAF-8A7B-2EB6F329C31D}" name="Qvib3" dataDxfId="20">
       <calculatedColumnFormula array="1">EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza3])/(Tabella333178[Boltzmann k]*2*Tabella8372135[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza3])/(Tabella333178[Boltzmann k]*Tabella8372135[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{49FF783C-035C-4B14-8EDF-467CB3DF11EA}" name="Qvib4" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{49FF783C-035C-4B14-8EDF-467CB3DF11EA}" name="Qvib4" dataDxfId="19">
       <calculatedColumnFormula array="1">EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza4])/(Tabella333178[Boltzmann k]*2*Tabella8372135[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza4])/(Tabella333178[Boltzmann k]*Tabella8372135[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1D9BDD63-F40A-4FAB-A973-033B95566759}" name="Qvib5" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{1D9BDD63-F40A-4FAB-A973-033B95566759}" name="Qvib5" dataDxfId="18">
       <calculatedColumnFormula array="1">EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza5])/(Tabella333178[Boltzmann k]*2*Tabella8372135[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza5])/(Tabella333178[Boltzmann k]*Tabella8372135[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DF51FD20-42C0-4BE1-8E66-800805FFF931}" name="Qvib6" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{DF51FD20-42C0-4BE1-8E66-800805FFF931}" name="Qvib6" dataDxfId="17">
       <calculatedColumnFormula array="1">EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza6])/(Tabella333178[Boltzmann k]*2*Tabella8372135[[#This Row],[Temperatura]]))/(1-EXP(-(Tabella333178[Planck h]*Tabella9382236[Frequenza6])/(Tabella333178[Boltzmann k]*Tabella8372135[[#This Row],[Temperatura]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A2304DAD-4277-40CF-A82F-28B60F152229}" name="Qvib" dataDxfId="20">
+    <tableColumn id="13" xr3:uid="{A2304DAD-4277-40CF-A82F-28B60F152229}" name="Qvib" dataDxfId="16">
       <calculatedColumnFormula>PRODUCT(Tabella8372135[[#This Row],[Qvib1]:[Qvib6]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6831,25 +6831,25 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{933A08BC-F9B3-46B1-83AC-AB052596F799}" name="Tabella9382236" displayName="Tabella9382236" ref="B12:G13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{933A08BC-F9B3-46B1-83AC-AB052596F799}" name="Tabella9382236" displayName="Tabella9382236" ref="B12:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B12:G13" xr:uid="{933A08BC-F9B3-46B1-83AC-AB052596F799}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{40B4E98D-03F5-4EFD-90FB-A47B7C77FB04}" name="Frequenza1" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{40B4E98D-03F5-4EFD-90FB-A47B7C77FB04}" name="Frequenza1" dataDxfId="13">
       <calculatedColumnFormula array="1">Tabella931473139[Frequenza1]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{17480D77-69F2-4CC8-BE78-050C3510E1AF}" name="Frequenza2" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{17480D77-69F2-4CC8-BE78-050C3510E1AF}" name="Frequenza2" dataDxfId="12">
       <calculatedColumnFormula array="1">Tabella931473139[Frequenza2]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FD39A61-5C82-40BE-8165-B37ADD796FF1}" name="Frequenza3" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{3FD39A61-5C82-40BE-8165-B37ADD796FF1}" name="Frequenza3" dataDxfId="11">
       <calculatedColumnFormula array="1">Tabella931473139[Frequenza3]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FE990D6A-5ABF-4B56-B701-25A5635F5AD3}" name="Frequenza4" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{FE990D6A-5ABF-4B56-B701-25A5635F5AD3}" name="Frequenza4" dataDxfId="10">
       <calculatedColumnFormula array="1">Tabella931473139[Frequenza4]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{53B6996B-8A7F-4EF5-90D5-B9ED9AA8D81E}" name="Frequenza5" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{53B6996B-8A7F-4EF5-90D5-B9ED9AA8D81E}" name="Frequenza5" dataDxfId="9">
       <calculatedColumnFormula array="1">Tabella931473139[Frequenza5]*29979300000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6BBC7EBF-F890-41DD-A33D-8AB530879954}" name="Frequenza6" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{6BBC7EBF-F890-41DD-A33D-8AB530879954}" name="Frequenza6" dataDxfId="8">
       <calculatedColumnFormula array="1">Tabella931473139[Frequenza6]*29979300000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6858,15 +6858,15 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9B1CC769-F69E-4AAA-B170-82AF2135E0C1}" name="Tabella931473139" displayName="Tabella931473139" ref="B10:G11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9B1CC769-F69E-4AAA-B170-82AF2135E0C1}" name="Tabella931473139" displayName="Tabella931473139" ref="B10:G11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B10:G11" xr:uid="{9B1CC769-F69E-4AAA-B170-82AF2135E0C1}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3686C89F-FE98-4951-9202-2D86603A5A36}" name="Frequenza1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F9D25F5B-E22D-42D5-B5B7-33285922541D}" name="Frequenza2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D1D39ADE-7DE5-4B87-BB73-323237FFCA34}" name="Frequenza3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{37A6739A-C58A-4D30-8B06-1E441FF70806}" name="Frequenza4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{0F49E4C0-C458-41DF-B128-8D5922BD18E8}" name="Frequenza5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{AE279DBD-4151-42BA-90E0-5C70D6116C1D}" name="Frequenza6" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3686C89F-FE98-4951-9202-2D86603A5A36}" name="Frequenza1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F9D25F5B-E22D-42D5-B5B7-33285922541D}" name="Frequenza2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D1D39ADE-7DE5-4B87-BB73-323237FFCA34}" name="Frequenza3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{37A6739A-C58A-4D30-8B06-1E441FF70806}" name="Frequenza4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0F49E4C0-C458-41DF-B128-8D5922BD18E8}" name="Frequenza5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AE279DBD-4151-42BA-90E0-5C70D6116C1D}" name="Frequenza6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7008,12 +7008,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D51BE13-1712-4EAC-A8A5-DA75F6866F4E}" name="Tabella8376" displayName="Tabella8376" ref="A13:C31" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D51BE13-1712-4EAC-A8A5-DA75F6866F4E}" name="Tabella8376" displayName="Tabella8376" ref="A13:C31" totalsRowShown="0" dataDxfId="93">
   <autoFilter ref="A13:C31" xr:uid="{8D51BE13-1712-4EAC-A8A5-DA75F6866F4E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF581C94-81E1-4DAF-8724-E3AAF4CD4171}" name="Temperatura" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9BFC159F-D192-4324-9E56-98CB02FD28BA}" name="Qvib1" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0A6CCB9C-D9FB-4F34-B1C8-C7E3F51F378F}" name="Qtot" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{BF581C94-81E1-4DAF-8724-E3AAF4CD4171}" name="Temperatura" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{9BFC159F-D192-4324-9E56-98CB02FD28BA}" name="Qvib1" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{0A6CCB9C-D9FB-4F34-B1C8-C7E3F51F378F}" name="Qtot" dataDxfId="90">
       <calculatedColumnFormula>PRODUCT(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10134,7 +10134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD13C58-2795-4EF5-BC6F-18E1A60B9B99}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -14008,8 +14008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1C94E5-B238-4689-8C48-188B02C09FCA}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Giuseppe/project 9/lab9_10_1.xlsx
+++ b/Giuseppe/project 9/lab9_10_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giuseppe\Documents\.magistrale\secondo anno\Process\Final\project 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623CBE4D-BFF5-454A-9F8E-60D89EBB24C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375AD71-3B7F-462E-B46C-E6356D7B6BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{95A3C49D-62D7-4399-8090-8506A2A22D63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="5" xr2:uid="{95A3C49D-62D7-4399-8090-8506A2A22D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Q TST1 " sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
   <si>
     <t>Q CH4</t>
   </si>
@@ -248,98 +248,7 @@
     <t xml:space="preserve">Q ≠ </t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>E forward [kcal/mol]</t>
-  </si>
-  <si>
-    <t>pre-exp</t>
-  </si>
-  <si>
-    <t>https://kinetics.nist.gov/kinetics/Detail?id=1984WAR197C:14</t>
-  </si>
-  <si>
-    <r>
-      <t>9.66x10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/molecule s] (T/298 K)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-36.58 [kJ/mole]/RT</t>
-    </r>
-  </si>
-  <si>
-    <t>from experimental values</t>
   </si>
   <si>
     <t>Transition state</t>
@@ -450,6 +359,306 @@
   <si>
     <t>Q tunnel</t>
   </si>
+  <si>
+    <t>Il sistema continua a vibrare lungo la direzione dello scostamento, senza trasmettere il moto ad altre direzioni</t>
+  </si>
+  <si>
+    <t>Hessiana (con coordinate lungo i modi normali) diagonale</t>
+  </si>
+  <si>
+    <t>rate constant</t>
+  </si>
+  <si>
+    <t>Q CH_4</t>
+  </si>
+  <si>
+    <t>Dal lab3</t>
+  </si>
+  <si>
+    <t>Q_R</t>
+  </si>
+  <si>
+    <t>Kinetic constant</t>
+  </si>
+  <si>
+    <t>Freq attraveramento (Q ≠ /Q_R)</t>
+  </si>
+  <si>
+    <t>k = (1000*m)^2</t>
+  </si>
+  <si>
+    <t>QNH3</t>
+  </si>
+  <si>
+    <t>Derivata seconda lungo coordinata di reazione &lt;&lt;0: barriera stretta</t>
+  </si>
+  <si>
+    <t>k forward</t>
+  </si>
+  <si>
+    <r>
+      <t>9.66x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/molecule s] (T/298 K)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-36.58 [kJ/mole]/RT</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kinetics.nist.gov/kinetics/Detail?id=1984WAR197C:14   https://kinetics.nist.gov/kinetics/Detail?id=1992BAU/COB411-429:109</t>
+  </si>
+  <si>
+    <r>
+      <t>6.86x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/molecule s] (T/298 K)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-39.41 [kJ/mole]/RT</t>
+    </r>
+  </si>
+  <si>
+    <t>k backward</t>
+  </si>
+  <si>
+    <t>pre-exp forward</t>
+  </si>
+  <si>
+    <t>pre-exp backward</t>
+  </si>
+  <si>
+    <t>E backward [kcal/mol]</t>
+  </si>
+  <si>
+    <t>https://kinetics.nist.gov/kinetics/Detail?id=2019THA/STA321-328:1</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <r>
+      <t>1.58x10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/molecule s] (T/298 K)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-43.54 [kJ/mole]/RT</t>
+    </r>
+  </si>
+  <si>
+    <t>La velocita di decomposizione del metano in gruppo metile avviene più velocemente anche a temperature alte</t>
+  </si>
+  <si>
+    <t>Effetto tunnel perché l'H ha massa molto bassa</t>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +670,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,8 +760,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,8 +850,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1267,12 +1504,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1603,6 +1864,94 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2392,7 +2741,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2405,16 +2754,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>SCF vs bond distance</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>(C-H)</a:t>
+              <a:rPr lang="it-IT" sz="1800"/>
+              <a:t>Coordinata di reazione</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2432,7 +2773,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2505,7 +2846,7 @@
                 <c:pt idx="1">
                   <c:v>-41.021173940600001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00000">
                   <c:v>-41.013199601799997</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -2773,6 +3114,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>k forward</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2930,275 +3274,16 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="850394912"/>
-        <c:axId val="850395392"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="850394912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="850395392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="850395392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="850394912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>K vs temperature</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k backward</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3209,11 +3294,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3284,63 +3369,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CH4+H=CH3+H2'!$E$12:$E$29</c:f>
+              <c:f>'CH4+H=CH3+H2'!$F$12:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.4307321353614842E-18</c:v>
+                  <c:v>1.1344424995692049E-21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0541843630475941E-16</c:v>
+                  <c:v>2.4322207420376702E-19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5232281483209366E-15</c:v>
+                  <c:v>6.4812535495441941E-18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9935761597508952E-15</c:v>
+                  <c:v>6.3391449804805506E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1155432994371389E-14</c:v>
+                  <c:v>3.4506762579916184E-16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2554586868853935E-13</c:v>
+                  <c:v>1.2916107358862753E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1166049537046307E-13</c:v>
+                  <c:v>3.7458107544501907E-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6694748452284042E-13</c:v>
+                  <c:v>9.0516213038634746E-15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2772949999981241E-12</c:v>
+                  <c:v>1.9101774459378868E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2456470190460195E-12</c:v>
+                  <c:v>3.6340468294343527E-14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6902283491990832E-12</c:v>
+                  <c:v>6.3734173128453247E-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7426824464086089E-12</c:v>
+                  <c:v>1.04723557484736E-13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5462904377214907E-12</c:v>
+                  <c:v>1.6316668284133043E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2254351902215989E-11</c:v>
+                  <c:v>2.4328037102634012E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7028756077237881E-11</c:v>
+                  <c:v>3.4958395631241838E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3038743869059914E-11</c:v>
+                  <c:v>4.8684769506600222E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0459847065130081E-11</c:v>
+                  <c:v>6.600468261063277E-13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9472985360345949E-11</c:v>
+                  <c:v>8.7432148814391195E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,7 +3433,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A8A1-4EFC-AFE1-525CC2BBE899}"/>
+              <c16:uniqueId val="{00000001-F148-40DB-8684-BD3577269C3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3495,6 +3580,656 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>K vs temperature</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k forward</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CH4+H=CH3+H2'!$A$12:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>298.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NH3+H=NH2+H2'!$E$12:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.4257089380414971E-21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1508194256957061E-19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8649104517990277E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2390901018928284E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.411738451809217E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9019315495846889E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8658312326916938E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8319320157339335E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0793151338253666E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1532662250977178E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9318207342206497E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6884523115444438E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0740043448737622E-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6442751144773092E-12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4187535576738806E-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4395692691420483E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7514601431102343E-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4013802468113065E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8A1-4EFC-AFE1-525CC2BBE899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k backward</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NH3+H=NH2+H2'!$A$12:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>298.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NH3+H=NH2+H2'!$F$12:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.3071140933437215E-22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2608303390155019E-19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9145595761006505E-18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3287553381832148E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9481760096942688E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8931862060206246E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2602524721105986E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3064546279942024E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4288586738883506E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4833220568287421E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7012336249837178E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5711542135285512E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2885895175761167E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1065530073759298E-12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6126163529749086E-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2703011879727305E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1033592880143244E-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1357624249187016E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A932-43EA-991B-6954240FAC0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="850394912"/>
+        <c:axId val="850395392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="850394912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850395392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="850395392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850394912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3560,7 +4295,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3573,7 +4308,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -3581,7 +4316,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>K vs temperature</a:t>
+              <a:t>Coordinata di reazione</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3599,7 +4334,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6092,8 +6827,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6139,8 +6874,8 @@
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>840132</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1208432</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>98424</xdr:rowOff>
     </xdr:to>
@@ -6188,10 +6923,10 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>383585</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1069385</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6269,16 +7004,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1478722</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>170336</xdr:rowOff>
+      <xdr:colOff>1256472</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>24286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6306,8 +7041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7397750" y="8245476"/>
-          <a:ext cx="1453322" cy="964085"/>
+          <a:off x="9080500" y="7493001"/>
+          <a:ext cx="1453322" cy="932335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6319,15 +7054,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>549960</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:colOff>175310</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1619251</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
+      <xdr:colOff>1244601</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6355,8 +7090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9493935" y="7794626"/>
-          <a:ext cx="1069291" cy="1161414"/>
+          <a:off x="11097310" y="7378701"/>
+          <a:ext cx="1069291" cy="1123314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6368,15 +7103,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>154454</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>560294</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>169395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6401,6 +7136,388 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223558</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48745</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="892552" cy="327025"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="CasellaDiTesto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFE5C23-E008-0644-4E00-2BBA2D8EB4BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2718734" y="1385980"/>
+              <a:ext cx="892552" cy="327025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>/</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅𝑇</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="2000" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="CasellaDiTesto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFE5C23-E008-0644-4E00-2BBA2D8EB4BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2718734" y="1385980"/>
+              <a:ext cx="892552" cy="327025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒^(−𝐸_𝑎/𝑅𝑇)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="2000" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="892552" cy="327025"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CasellaDiTesto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9659F0D-1199-40D0-93B2-3828A8DE1AAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7799294" y="1524000"/>
+              <a:ext cx="892552" cy="327025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑏</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>/</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅𝑇</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="2000" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CasellaDiTesto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9659F0D-1199-40D0-93B2-3828A8DE1AAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7799294" y="1524000"/>
+              <a:ext cx="892552" cy="327025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒^(−𝐸_𝑏/𝑅𝑇)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="2000" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6409,15 +7526,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>342899</xdr:rowOff>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6490,8 +7607,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>441910</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>867360</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>46027</xdr:rowOff>
     </xdr:to>
@@ -6539,8 +7656,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1263374</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234674</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>158888</xdr:rowOff>
     </xdr:to>
@@ -6566,50 +7683,6 @@
         <a:xfrm>
           <a:off x="5924550" y="10925175"/>
           <a:ext cx="2711174" cy="2521088"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>577939</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>176189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Immagine 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31388970-BC71-41DC-A7D4-C33398A3DA81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8982075" y="10620375"/>
-          <a:ext cx="6731089" cy="3414689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7366,21 +8439,21 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="14.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -7406,7 +8479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -7434,10 +8507,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="F6" s="24" t="s">
         <v>24</v>
@@ -7449,7 +8522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="F7" s="25">
         <v>7.1452600000000004</v>
@@ -7461,7 +8534,7 @@
         <v>2.7868900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -7475,7 +8548,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -7487,7 +8560,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
@@ -7525,7 +8598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="81">
         <v>-1159.2845</v>
       </c>
@@ -7563,7 +8636,7 @@
         <v>3229.8180000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
@@ -7601,7 +8674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9" cm="1">
         <f t="array" ref="B13">Tabella93147[Frequenza1]*29979300000</f>
         <v>-34754537810850</v>
@@ -7651,7 +8724,7 @@
         <v>96827682767400</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>38</v>
       </c>
@@ -7695,7 +8768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="34">
         <v>298.14999999999998</v>
       </c>
@@ -7753,7 +8826,7 @@
       </c>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <v>400</v>
       </c>
@@ -7810,7 +8883,7 @@
         <v>3.7274158703074464E-16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="34">
         <v>500</v>
       </c>
@@ -7867,7 +8940,7 @@
         <v>6.4269833917149163E-13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="34">
         <v>600</v>
       </c>
@@ -7924,7 +8997,7 @@
         <v>1.0586274408466738E-10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="34">
         <v>700</v>
       </c>
@@ -7981,7 +9054,7 @@
         <v>4.5755335475171877E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>800</v>
       </c>
@@ -8038,7 +9111,7 @@
         <v>8.5691311795797618E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="34">
         <v>900</v>
       </c>
@@ -8095,7 +9168,7 @@
         <v>9.1730840715906812E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="34">
         <v>1000</v>
       </c>
@@ -8152,7 +9225,7 @@
         <v>6.6224666884018121E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="34">
         <v>1100</v>
       </c>
@@ -8209,7 +9282,7 @@
         <v>3.5811754432149158E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="34">
         <v>1200</v>
       </c>
@@ -8266,7 +9339,7 @@
         <v>1.5554799731494471E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="34">
         <v>1300</v>
       </c>
@@ -8323,7 +9396,7 @@
         <v>5.6954458065727439E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="34">
         <v>1400</v>
       </c>
@@ -8380,7 +9453,7 @@
         <v>1.819804104034524E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="34">
         <v>1500</v>
       </c>
@@ -8437,7 +9510,7 @@
         <v>5.2046098140973336E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="34">
         <v>1600</v>
       </c>
@@ -8494,7 +9567,7 @@
         <v>1.3580763191121665E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="34">
         <v>1700</v>
       </c>
@@ -8551,7 +9624,7 @@
         <v>3.2810780558465272E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="34">
         <v>1800</v>
       </c>
@@ -8608,7 +9681,7 @@
         <v>7.4244171363708505E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="34">
         <v>1900</v>
       </c>
@@ -8665,7 +9738,7 @@
         <v>0.15879495257825502</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="36">
         <v>2000</v>
       </c>
@@ -8722,8 +9795,8 @@
         <v>0.32340561165172416</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="28" t="s">
         <v>38</v>
       </c>
@@ -8746,7 +9819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="21">
         <v>298.14999999999998</v>
       </c>
@@ -8774,7 +9847,7 @@
         <v>9.6775436374025866E-12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="21">
         <v>400</v>
       </c>
@@ -8802,7 +9875,7 @@
         <v>8.2118295112869874E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
         <v>500</v>
       </c>
@@ -8830,7 +9903,7 @@
         <v>3.4568402010532073E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="21">
         <v>600</v>
       </c>
@@ -8858,7 +9931,7 @@
         <v>11.807018880119504</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="21">
         <v>700</v>
       </c>
@@ -8886,7 +9959,7 @@
         <v>945.42267222270539</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="21">
         <v>800</v>
       </c>
@@ -8914,7 +9987,7 @@
         <v>30205.696066109678</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="21">
         <v>900</v>
       </c>
@@ -8942,7 +10015,7 @@
         <v>517937.69602631917</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="21">
         <v>1000</v>
       </c>
@@ -8970,7 +10043,7 @@
         <v>5699173.6703385869</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="21">
         <v>1100</v>
       </c>
@@ -8998,7 +10071,7 @@
         <v>45122011.032609589</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="21">
         <v>1200</v>
       </c>
@@ -9026,7 +10099,7 @@
         <v>277575746.8887803</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="21">
         <v>1300</v>
       </c>
@@ -9054,7 +10127,7 @@
         <v>1399887842.882756</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="21">
         <v>1400</v>
       </c>
@@ -9082,7 +10155,7 @@
         <v>6016291795.7989969</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="21">
         <v>1500</v>
       </c>
@@ -9110,7 +10183,7 @@
         <v>22674896922.998348</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="21">
         <v>1600</v>
       </c>
@@ -9138,7 +10211,7 @@
         <v>76594258475.002014</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="21">
         <v>1700</v>
       </c>
@@ -9166,7 +10239,7 @@
         <v>235832881118.21393</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="21">
         <v>1800</v>
       </c>
@@ -9194,7 +10267,7 @@
         <v>670724999520.63464</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="21">
         <v>1900</v>
       </c>
@@ -9222,7 +10295,7 @@
         <v>1780915060906.2229</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="21">
         <v>2000</v>
       </c>
@@ -9271,19 +10344,19 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -9309,7 +10382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -9337,14 +10410,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H3" s="43"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="H6" s="43"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -9355,7 +10428,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9364,28 +10437,28 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" cm="1">
         <f t="array" ref="B12">Tabella9314716[Frequenza1]*29979300000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -9396,7 +10469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>298.14999999999998</v>
       </c>
@@ -9407,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>400</v>
       </c>
@@ -9418,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>500</v>
       </c>
@@ -9429,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>600</v>
       </c>
@@ -9440,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>700</v>
       </c>
@@ -9451,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>800</v>
       </c>
@@ -9462,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>900</v>
       </c>
@@ -9473,7 +10546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>1000</v>
       </c>
@@ -9484,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>1100</v>
       </c>
@@ -9495,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>1200</v>
       </c>
@@ -9506,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>1300</v>
       </c>
@@ -9517,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>1400</v>
       </c>
@@ -9528,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>1500</v>
       </c>
@@ -9539,7 +10612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>1600</v>
       </c>
@@ -9550,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>1700</v>
       </c>
@@ -9561,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>1800</v>
       </c>
@@ -9572,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>1900</v>
       </c>
@@ -9583,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2000</v>
       </c>
@@ -9594,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -9603,8 +10676,8 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50" t="s">
         <v>38</v>
       </c>
@@ -9627,7 +10700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="48">
         <v>298.14999999999998</v>
       </c>
@@ -9654,7 +10727,7 @@
         <v>79497.535716311773</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>400</v>
       </c>
@@ -9681,7 +10754,7 @@
         <v>165735.90748691262</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>500</v>
       </c>
@@ -9708,7 +10781,7 @@
         <v>289528.71519792947</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>600</v>
       </c>
@@ -9735,7 +10808,7 @@
         <v>456714.45607505803</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>700</v>
       </c>
@@ -9762,7 +10835,7 @@
         <v>671446.99161483813</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>800</v>
       </c>
@@ -9789,7 +10862,7 @@
         <v>937543.87256082019</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>900</v>
       </c>
@@ -9816,7 +10889,7 @@
         <v>1258557.0474787266</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1000</v>
       </c>
@@ -9843,7 +10916,7 @@
         <v>1637821.7429174811</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1100</v>
       </c>
@@ -9870,7 +10943,7 @@
         <v>2078491.9421937331</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1200</v>
       </c>
@@ -9897,7 +10970,7 @@
         <v>2583567.1116527999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1300</v>
       </c>
@@ -9924,7 +10997,7 @@
         <v>3155912.9323251243</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1400</v>
       </c>
@@ -9951,7 +11024,7 @@
         <v>3798277.7678252826</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1500</v>
       </c>
@@ -9978,7 +11051,7 @@
         <v>4513306.0047565643</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1600</v>
       </c>
@@ -10005,7 +11078,7 @@
         <v>5303549.0395811573</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1700</v>
       </c>
@@ -10032,7 +11105,7 @@
         <v>6171474.4556266693</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1800</v>
       </c>
@@ -10059,7 +11132,7 @@
         <v>7119473.7822586382</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1900</v>
       </c>
@@ -10086,7 +11159,7 @@
         <v>8149869.1253304556</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>2000</v>
       </c>
@@ -10113,7 +11186,7 @@
         <v>9264918.8863336649</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D54" s="44"/>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
@@ -10132,32 +11205,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD13C58-2795-4EF5-BC6F-18E1A60B9B99}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9"/>
+    <col min="11" max="11" width="18.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="15" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>14</v>
       </c>
@@ -10168,7 +11241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>8.3144626180000003</v>
       </c>
@@ -10179,8 +11252,8 @@
         <v>6.6260687599999996E-34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="63" t="s">
         <v>4</v>
       </c>
@@ -10196,20 +11269,20 @@
       <c r="F4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="H4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="67" t="s">
+      <c r="I4" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="62" t="s">
         <v>3</v>
       </c>
@@ -10228,24 +11301,24 @@
       <c r="F5" s="74">
         <v>-41.011797089300003</v>
       </c>
-      <c r="J5" s="69">
+      <c r="H5" s="69">
         <f>F5+F7-(B5+C5+B7)</f>
         <v>1.2675157999993303E-2</v>
       </c>
-      <c r="K5" s="75">
-        <f>J5*627.5</f>
+      <c r="I5" s="75">
+        <f>H5*627.5</f>
         <v>7.9536616449957975</v>
       </c>
-      <c r="M5" s="69">
+      <c r="K5" s="69">
         <f>F5+F7-(D5+E5+D7+E7)</f>
         <v>1.6919142419986599E-2</v>
       </c>
-      <c r="N5" s="76">
-        <f>627.5*M5</f>
+      <c r="L5" s="76">
+        <f>627.5*K5</f>
         <v>10.616761868541591</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="71" t="s">
         <v>4</v>
       </c>
@@ -10261,14 +11334,14 @@
       <c r="F6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="I6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="L6" s="65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="70" t="s">
         <v>9</v>
       </c>
@@ -10287,30 +11360,34 @@
       <c r="F7" s="73">
         <v>4.2834999999999998E-2</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="11">
-        <f>K5*4.184</f>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11">
+        <f>I5*4.184</f>
         <v>33.278120322662417</v>
       </c>
-      <c r="N7" s="11">
-        <f>N5*4.184</f>
+      <c r="L7" s="11">
+        <f>L5*4.184</f>
         <v>44.420531657978017</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.45">
       <c r="A9" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="80"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="59" t="s">
         <v>2</v>
       </c>
@@ -10324,16 +11401,22 @@
         <v>60</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="135" t="s">
+        <v>90</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="56">
         <v>298.14999999999998</v>
       </c>
@@ -10347,19 +11430,26 @@
         <v>9.6775436374025866E-12</v>
       </c>
       <c r="E12" s="122">
-        <f>H12*EXP(-$K$7*1000/($A$2*A12))</f>
+        <f>H12*EXP(-$I$7*1000/($A$2*A12))</f>
         <v>1.4307321353614842E-18</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="40">
-        <f t="shared" ref="H12:H29" si="0">0.000000000000966*POWER((A12/298),3)</f>
+      <c r="F12" s="132">
+        <f>G12*EXP(-$L$7*1000/($A$2*A12))</f>
+        <v>1.1344424995692049E-21</v>
+      </c>
+      <c r="G12" s="136">
+        <f>0.0000000000000686*(A12/298)^2.74</f>
+        <v>6.8694654189587424E-14</v>
+      </c>
+      <c r="H12" s="133">
+        <f>0.000000000000966*POWER((A12/298),3)</f>
         <v>9.6745945921287764E-13</v>
       </c>
       <c r="I12" s="123">
         <v>4.4078869999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>400</v>
       </c>
@@ -10373,18 +11463,26 @@
         <v>8.2118295112869874E-6</v>
       </c>
       <c r="E13" s="122">
-        <f t="shared" ref="E13:E29" si="1">H13*EXP(-$K$7*1000/($A$2*A13))</f>
+        <f>H13*EXP(-$I$7*1000/($A$2*A13))</f>
         <v>1.0541843630475941E-16</v>
       </c>
-      <c r="H13" s="40">
-        <f t="shared" si="0"/>
+      <c r="F13" s="132">
+        <f t="shared" ref="F13:F29" si="0">G13*EXP(-$L$7*1000/($A$2*A13))</f>
+        <v>2.4322207420376702E-19</v>
+      </c>
+      <c r="G13" s="137">
+        <f t="shared" ref="G13:G29" si="1">0.0000000000000686*(A13/298)^2.74</f>
+        <v>1.5367949628736284E-13</v>
+      </c>
+      <c r="H13" s="133">
+        <f>0.000000000000966*POWER((A13/298),3)</f>
         <v>2.336190793751657E-12</v>
       </c>
       <c r="I13" s="123">
         <v>2.226019</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>500</v>
       </c>
@@ -10398,18 +11496,26 @@
         <v>3.4568402010532073E-2</v>
       </c>
       <c r="E14" s="122">
+        <f>H14*EXP(-$I$7*1000/($A$2*A14))</f>
+        <v>1.5232281483209366E-15</v>
+      </c>
+      <c r="F14" s="132">
+        <f t="shared" si="0"/>
+        <v>6.4812535495441941E-18</v>
+      </c>
+      <c r="G14" s="137">
         <f t="shared" si="1"/>
-        <v>1.5232281483209366E-15</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="0"/>
+        <v>2.8323659451273147E-13</v>
+      </c>
+      <c r="H14" s="133">
+        <f>0.000000000000966*POWER((A14/298),3)</f>
         <v>4.562872644046205E-12</v>
       </c>
       <c r="I14" s="123">
         <v>1.6652340000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>600</v>
       </c>
@@ -10423,18 +11529,26 @@
         <v>11.807018880119504</v>
       </c>
       <c r="E15" s="122">
+        <f>H15*EXP(-$I$7*1000/($A$2*A15))</f>
+        <v>9.9935761597508952E-15</v>
+      </c>
+      <c r="F15" s="132">
+        <f t="shared" si="0"/>
+        <v>6.3391449804805506E-17</v>
+      </c>
+      <c r="G15" s="137">
         <f t="shared" si="1"/>
-        <v>9.9935761597508952E-15</v>
-      </c>
-      <c r="H15" s="40">
-        <f t="shared" si="0"/>
+        <v>4.6677327020407892E-13</v>
+      </c>
+      <c r="H15" s="133">
+        <f>0.000000000000966*POWER((A15/298),3)</f>
         <v>7.884643928911843E-12</v>
       </c>
       <c r="I15" s="123">
         <v>1.4293450000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>700</v>
       </c>
@@ -10448,18 +11562,26 @@
         <v>945.42267222270539</v>
       </c>
       <c r="E16" s="122">
+        <f>H16*EXP(-$I$7*1000/($A$2*A16))</f>
+        <v>4.1155432994371389E-14</v>
+      </c>
+      <c r="F16" s="132">
+        <f t="shared" si="0"/>
+        <v>3.4506762579916184E-16</v>
+      </c>
+      <c r="G16" s="137">
         <f t="shared" si="1"/>
-        <v>4.1155432994371389E-14</v>
-      </c>
-      <c r="H16" s="40">
-        <f t="shared" si="0"/>
+        <v>7.120986817174655E-13</v>
+      </c>
+      <c r="H16" s="133">
+        <f>0.000000000000966*POWER((A16/298),3)</f>
         <v>1.2520522535262784E-11</v>
       </c>
       <c r="I16" s="123">
         <v>1.304854</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>800</v>
       </c>
@@ -10473,18 +11595,26 @@
         <v>30205.696066109678</v>
       </c>
       <c r="E17" s="122">
+        <f>H17*EXP(-$I$7*1000/($A$2*A17))</f>
+        <v>1.2554586868853935E-13</v>
+      </c>
+      <c r="F17" s="132">
+        <f t="shared" si="0"/>
+        <v>1.2916107358862753E-15</v>
+      </c>
+      <c r="G17" s="137">
         <f t="shared" si="1"/>
-        <v>1.2554586868853935E-13</v>
-      </c>
-      <c r="H17" s="40">
-        <f t="shared" si="0"/>
+        <v>1.0266871265073092E-12</v>
+      </c>
+      <c r="H17" s="133">
+        <f>0.000000000000966*POWER((A17/298),3)</f>
         <v>1.8689526350013256E-11</v>
       </c>
       <c r="I17" s="123">
         <v>1.2300040000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>900</v>
       </c>
@@ -10498,18 +11628,26 @@
         <v>517937.69602631917</v>
       </c>
       <c r="E18" s="122">
+        <f>H18*EXP(-$I$7*1000/($A$2*A18))</f>
+        <v>3.1166049537046307E-13</v>
+      </c>
+      <c r="F18" s="132">
+        <f t="shared" si="0"/>
+        <v>3.7458107544501907E-15</v>
+      </c>
+      <c r="G18" s="137">
         <f t="shared" si="1"/>
-        <v>3.1166049537046307E-13</v>
-      </c>
-      <c r="H18" s="40">
-        <f t="shared" si="0"/>
+        <v>1.4177381566217831E-12</v>
+      </c>
+      <c r="H18" s="133">
+        <f>0.000000000000966*POWER((A18/298),3)</f>
         <v>2.6610673260077462E-11</v>
       </c>
       <c r="I18" s="123">
         <v>1.181012</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>1000</v>
       </c>
@@ -10523,18 +11661,26 @@
         <v>5699173.6703385869</v>
       </c>
       <c r="E19" s="122">
+        <f>H19*EXP(-$I$7*1000/($A$2*A19))</f>
+        <v>6.6694748452284042E-13</v>
+      </c>
+      <c r="F19" s="132">
+        <f t="shared" si="0"/>
+        <v>9.0516213038634746E-15</v>
+      </c>
+      <c r="G19" s="137">
         <f t="shared" si="1"/>
-        <v>6.6694748452284042E-13</v>
-      </c>
-      <c r="H19" s="40">
-        <f t="shared" si="0"/>
+        <v>1.8922196673409093E-12</v>
+      </c>
+      <c r="H19" s="133">
+        <f>0.000000000000966*POWER((A19/298),3)</f>
         <v>3.650298115236964E-11</v>
       </c>
       <c r="I19" s="123">
         <v>1.1469659999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1100</v>
       </c>
@@ -10548,18 +11694,26 @@
         <v>45122011.032609589</v>
       </c>
       <c r="E20" s="122">
+        <f>H20*EXP(-$I$7*1000/($A$2*A20))</f>
+        <v>1.2772949999981241E-12</v>
+      </c>
+      <c r="F20" s="132">
+        <f t="shared" si="0"/>
+        <v>1.9101774459378868E-14</v>
+      </c>
+      <c r="G20" s="137">
         <f t="shared" si="1"/>
-        <v>1.2772949999981241E-12</v>
-      </c>
-      <c r="H20" s="40">
-        <f t="shared" si="0"/>
+        <v>2.4569001649310328E-12</v>
+      </c>
+      <c r="H20" s="133">
+        <f>0.000000000000966*POWER((A20/298),3)</f>
         <v>4.8585467913803979E-11</v>
       </c>
       <c r="I20" s="123">
         <v>1.1222240000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1200</v>
       </c>
@@ -10573,18 +11727,26 @@
         <v>277575746.8887803</v>
       </c>
       <c r="E21" s="122">
+        <f>H21*EXP(-$I$7*1000/($A$2*A21))</f>
+        <v>2.2456470190460195E-12</v>
+      </c>
+      <c r="F21" s="132">
+        <f t="shared" si="0"/>
+        <v>3.6340468294343527E-14</v>
+      </c>
+      <c r="G21" s="137">
         <f t="shared" si="1"/>
-        <v>2.2456470190460195E-12</v>
-      </c>
-      <c r="H21" s="40">
-        <f t="shared" si="0"/>
+        <v>3.1183737524760031E-12</v>
+      </c>
+      <c r="H21" s="133">
+        <f>0.000000000000966*POWER((A21/298),3)</f>
         <v>6.3077151431294744E-11</v>
       </c>
       <c r="I21" s="123">
         <v>1.10361</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1300</v>
       </c>
@@ -10598,18 +11760,26 @@
         <v>1399887842.882756</v>
       </c>
       <c r="E22" s="122">
+        <f>H22*EXP(-$I$7*1000/($A$2*A22))</f>
+        <v>3.6902283491990832E-12</v>
+      </c>
+      <c r="F22" s="132">
+        <f t="shared" si="0"/>
+        <v>6.3734173128453247E-14</v>
+      </c>
+      <c r="G22" s="137">
         <f t="shared" si="1"/>
-        <v>3.6902283491990832E-12</v>
-      </c>
-      <c r="H22" s="40">
-        <f t="shared" si="0"/>
+        <v>3.8830799946131669E-12</v>
+      </c>
+      <c r="H22" s="133">
+        <f>0.000000000000966*POWER((A22/298),3)</f>
         <v>8.0197049591756106E-11</v>
       </c>
       <c r="I22" s="123">
         <v>1.0892109999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1400</v>
       </c>
@@ -10623,18 +11793,26 @@
         <v>6016291795.7989969</v>
       </c>
       <c r="E23" s="122">
+        <f>H23*EXP(-$I$7*1000/($A$2*A23))</f>
+        <v>5.7426824464086089E-12</v>
+      </c>
+      <c r="F23" s="132">
+        <f t="shared" si="0"/>
+        <v>1.04723557484736E-13</v>
+      </c>
+      <c r="G23" s="137">
         <f t="shared" si="1"/>
-        <v>5.7426824464086089E-12</v>
-      </c>
-      <c r="H23" s="40">
-        <f t="shared" si="0"/>
+        <v>4.7573200523449849E-12</v>
+      </c>
+      <c r="H23" s="133">
+        <f>0.000000000000966*POWER((A23/298),3)</f>
         <v>1.0016418028210227E-10</v>
       </c>
       <c r="I23" s="123">
         <v>1.077817</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>1500</v>
       </c>
@@ -10648,18 +11826,26 @@
         <v>22674896922.998348</v>
       </c>
       <c r="E24" s="122">
+        <f>H24*EXP(-$I$7*1000/($A$2*A24))</f>
+        <v>8.5462904377214907E-12</v>
+      </c>
+      <c r="F24" s="132">
+        <f t="shared" si="0"/>
+        <v>1.6316668284133043E-13</v>
+      </c>
+      <c r="G24" s="137">
         <f t="shared" si="1"/>
-        <v>8.5462904377214907E-12</v>
-      </c>
-      <c r="H24" s="40">
-        <f t="shared" si="0"/>
+        <v>5.7472700223954284E-12</v>
+      </c>
+      <c r="H24" s="133">
+        <f>0.000000000000966*POWER((A24/298),3)</f>
         <v>1.231975613892475E-10</v>
       </c>
       <c r="I24" s="123">
         <v>1.068627</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>1600</v>
       </c>
@@ -10673,18 +11859,26 @@
         <v>76594258475.002014</v>
       </c>
       <c r="E25" s="122">
+        <f>H25*EXP(-$I$7*1000/($A$2*A25))</f>
+        <v>1.2254351902215989E-11</v>
+      </c>
+      <c r="F25" s="132">
+        <f t="shared" si="0"/>
+        <v>2.4328037102634012E-13</v>
+      </c>
+      <c r="G25" s="137">
         <f t="shared" si="1"/>
-        <v>1.2254351902215989E-11</v>
-      </c>
-      <c r="H25" s="40">
-        <f t="shared" si="0"/>
+        <v>6.8589921310310393E-12</v>
+      </c>
+      <c r="H25" s="133">
+        <f>0.000000000000966*POWER((A25/298),3)</f>
         <v>1.4951621080010605E-10</v>
       </c>
       <c r="I25" s="123">
         <v>1.061094</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>1700</v>
       </c>
@@ -10698,18 +11892,26 @@
         <v>235832881118.21393</v>
       </c>
       <c r="E26" s="122">
+        <f>H26*EXP(-$I$7*1000/($A$2*A26))</f>
+        <v>1.7028756077237881E-11</v>
+      </c>
+      <c r="F26" s="132">
+        <f t="shared" si="0"/>
+        <v>3.4958395631241838E-13</v>
+      </c>
+      <c r="G26" s="137">
         <f t="shared" si="1"/>
-        <v>1.7028756077237881E-11</v>
-      </c>
-      <c r="H26" s="40">
-        <f t="shared" si="0"/>
+        <v>8.0984442477044171E-12</v>
+      </c>
+      <c r="H26" s="133">
+        <f>0.000000000000966*POWER((A26/298),3)</f>
         <v>1.7933914640159201E-10</v>
       </c>
       <c r="I26" s="123">
         <v>1.0548329999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1800</v>
       </c>
@@ -10723,18 +11925,26 @@
         <v>670724999520.63464</v>
       </c>
       <c r="E27" s="122">
+        <f>H27*EXP(-$I$7*1000/($A$2*A27))</f>
+        <v>2.3038743869059914E-11</v>
+      </c>
+      <c r="F27" s="132">
+        <f t="shared" si="0"/>
+        <v>4.8684769506600222E-13</v>
+      </c>
+      <c r="G27" s="137">
         <f t="shared" si="1"/>
-        <v>2.3038743869059914E-11</v>
-      </c>
-      <c r="H27" s="40">
-        <f t="shared" si="0"/>
+        <v>9.4714880600599672E-12</v>
+      </c>
+      <c r="H27" s="133">
+        <f>0.000000000000966*POWER((A27/298),3)</f>
         <v>2.128853860806197E-10</v>
       </c>
       <c r="I27" s="123">
         <v>1.049566</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1900</v>
       </c>
@@ -10748,18 +11958,26 @@
         <v>1780915060906.2229</v>
       </c>
       <c r="E28" s="122">
+        <f>H28*EXP(-$I$7*1000/($A$2*A28))</f>
+        <v>3.0459847065130081E-11</v>
+      </c>
+      <c r="F28" s="132">
+        <f t="shared" si="0"/>
+        <v>6.600468261063277E-13</v>
+      </c>
+      <c r="G28" s="137">
         <f t="shared" si="1"/>
-        <v>3.0459847065130081E-11</v>
-      </c>
-      <c r="H28" s="40">
-        <f t="shared" si="0"/>
+        <v>1.0983896166351327E-11</v>
+      </c>
+      <c r="H28" s="133">
+        <f>0.000000000000966*POWER((A28/298),3)</f>
         <v>2.5037394772410338E-10</v>
       </c>
       <c r="I28" s="123">
         <v>1.0450870000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>2000</v>
       </c>
@@ -10773,27 +11991,39 @@
         <v>4453071240039.7969</v>
       </c>
       <c r="E29" s="122">
+        <f>H29*EXP(-$I$7*1000/($A$2*A29))</f>
+        <v>3.9472985360345949E-11</v>
+      </c>
+      <c r="F29" s="132">
+        <f t="shared" si="0"/>
+        <v>8.7432148814391195E-13</v>
+      </c>
+      <c r="G29" s="138">
         <f t="shared" si="1"/>
-        <v>3.9472985360345949E-11</v>
-      </c>
-      <c r="H29" s="41">
-        <f t="shared" si="0"/>
+        <v>1.264135828080929E-11</v>
+      </c>
+      <c r="H29" s="134">
+        <f>0.000000000000966*POWER((A29/298),3)</f>
         <v>2.9202384921895712E-10</v>
       </c>
       <c r="I29" s="11">
         <v>1.0412440000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M31" s="141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="89" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="87">
         <v>1.1299999999999999</v>
       </c>
@@ -10801,7 +12031,7 @@
         <v>-41.026856899800002</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="83">
         <v>1.2</v>
       </c>
@@ -10809,15 +12039,15 @@
         <v>-41.021173940600001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="83">
         <v>1.3</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="125">
         <v>-41.013199601799997</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="83">
         <v>1.5</v>
       </c>
@@ -10825,7 +12055,7 @@
         <v>-41.012461177600002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="85">
         <v>2</v>
       </c>
@@ -10833,21 +12063,483 @@
         <v>-41.021546732600001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.6">
       <c r="A51" s="82" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I51" s="82" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="68" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F68" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F70" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="I77" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="J77" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" s="130" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="102">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="B81" s="150">
+        <v>9.4457487044347829E-13</v>
+      </c>
+      <c r="C81" s="150">
+        <v>79497.535716311773</v>
+      </c>
+      <c r="D81" s="151">
+        <f>B81*C81</f>
+        <v>7.5091374499810982E-8</v>
+      </c>
+      <c r="E81" s="106">
+        <f t="shared" ref="E81:E98" si="2">D12/D81</f>
+        <v>1.2887690100048637E-4</v>
+      </c>
+      <c r="F81" s="106">
+        <f>($B$2*A81/$C$2)*E81</f>
+        <v>800639923.97387576</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>400</v>
+      </c>
+      <c r="B82" s="4">
+        <v>5.5035455714338104E-7</v>
+      </c>
+      <c r="C82" s="4">
+        <v>165735.90748691262</v>
+      </c>
+      <c r="D82" s="148">
+        <f t="shared" ref="D82:D98" si="3">B82*C82</f>
+        <v>9.1213511967716168E-2</v>
+      </c>
+      <c r="E82" s="107">
+        <f t="shared" si="2"/>
+        <v>9.0028651831687584E-5</v>
+      </c>
+      <c r="F82" s="152">
+        <f t="shared" ref="F82:F98" si="4">($B$2*A82/$C$2)*E82</f>
+        <v>750357248.76943564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>500</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1.667841628467739E-3</v>
+      </c>
+      <c r="C83" s="4">
+        <v>289528.71519792947</v>
+      </c>
+      <c r="D83" s="148">
+        <f t="shared" si="3"/>
+        <v>482.88804384388692</v>
+      </c>
+      <c r="E83" s="107">
+        <f t="shared" si="2"/>
+        <v>7.1586783833703092E-5</v>
+      </c>
+      <c r="F83" s="152">
+        <f t="shared" si="4"/>
+        <v>745813430.95825601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>600</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.41939102566724634</v>
+      </c>
+      <c r="C84" s="4">
+        <v>456714.45607505803</v>
+      </c>
+      <c r="D84" s="148">
+        <f t="shared" si="3"/>
+        <v>191541.9441703771</v>
+      </c>
+      <c r="E84" s="107">
+        <f t="shared" si="2"/>
+        <v>6.1641949658906704E-5</v>
+      </c>
+      <c r="F84" s="152">
+        <f t="shared" si="4"/>
+        <v>770646057.90133595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>700</v>
+      </c>
+      <c r="B85" s="4">
+        <v>25.177830088094307</v>
+      </c>
+      <c r="C85" s="4">
+        <v>671446.99161483813</v>
+      </c>
+      <c r="D85" s="148">
+        <f t="shared" si="3"/>
+        <v>16905578.268040478</v>
+      </c>
+      <c r="E85" s="107">
+        <f t="shared" si="2"/>
+        <v>5.5923710933331424E-5</v>
+      </c>
+      <c r="F85" s="152">
+        <f t="shared" si="4"/>
+        <v>815682916.38849783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>800</v>
+      </c>
+      <c r="B86" s="4">
+        <v>613.33052729509018</v>
+      </c>
+      <c r="C86" s="4">
+        <v>937543.87256082019</v>
+      </c>
+      <c r="D86" s="148">
+        <f t="shared" si="3"/>
+        <v>575024277.72000873</v>
+      </c>
+      <c r="E86" s="107">
+        <f t="shared" si="2"/>
+        <v>5.2529427428484091E-5</v>
+      </c>
+      <c r="F86" s="152">
+        <f t="shared" si="4"/>
+        <v>875628721.36218691</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>900</v>
+      </c>
+      <c r="B87" s="4">
+        <v>8146.8336679981694</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1258557.0474787266</v>
+      </c>
+      <c r="D87" s="148">
+        <f t="shared" si="3"/>
+        <v>10253254927.496061</v>
+      </c>
+      <c r="E87" s="107">
+        <f t="shared" si="2"/>
+        <v>5.0514465863651778E-5</v>
+      </c>
+      <c r="F87" s="152">
+        <f t="shared" si="4"/>
+        <v>947295815.59860659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B88" s="4">
+        <v>70486.434632813471</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1637821.7429174811</v>
+      </c>
+      <c r="D88" s="148">
+        <f t="shared" si="3"/>
+        <v>115444215222.35367</v>
+      </c>
+      <c r="E88" s="107">
+        <f t="shared" si="2"/>
+        <v>4.9367338669690623E-5</v>
+      </c>
+      <c r="F88" s="152">
+        <f t="shared" si="4"/>
+        <v>1028648648.7799395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="B89" s="4">
+        <v>444935.84343085141</v>
+      </c>
+      <c r="C89" s="4">
+        <v>2078491.9421937331</v>
+      </c>
+      <c r="D89" s="148">
+        <f t="shared" si="3"/>
+        <v>924795565364.19702</v>
+      </c>
+      <c r="E89" s="107">
+        <f t="shared" si="2"/>
+        <v>4.8791335861174824E-5</v>
+      </c>
+      <c r="F89" s="152">
+        <f t="shared" si="4"/>
+        <v>1118311364.6399088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2210469.6338691753</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2583567.1116527999</v>
+      </c>
+      <c r="D90" s="148">
+        <f t="shared" si="3"/>
+        <v>5710896647371.6074</v>
+      </c>
+      <c r="E90" s="107">
+        <f t="shared" si="2"/>
+        <v>4.8604582437423768E-5</v>
+      </c>
+      <c r="F90" s="152">
+        <f t="shared" si="4"/>
+        <v>1215306461.220243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B91" s="4">
+        <v>9110117.0639377795</v>
+      </c>
+      <c r="C91" s="4">
+        <v>3155912.9323251243</v>
+      </c>
+      <c r="D91" s="148">
+        <f t="shared" si="3"/>
+        <v>28750736257077.031</v>
+      </c>
+      <c r="E91" s="107">
+        <f t="shared" si="2"/>
+        <v>4.8690504144504188E-5</v>
+      </c>
+      <c r="F91" s="152">
+        <f t="shared" si="4"/>
+        <v>1318909413.393821</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B92" s="4">
+        <v>32344312.460540276</v>
+      </c>
+      <c r="C92" s="4">
+        <v>3798277.7678252826</v>
+      </c>
+      <c r="D92" s="148">
+        <f t="shared" si="3"/>
+        <v>122852682934464.39</v>
+      </c>
+      <c r="E92" s="107">
+        <f t="shared" si="2"/>
+        <v>4.8971594694503985E-5</v>
+      </c>
+      <c r="F92" s="152">
+        <f t="shared" si="4"/>
+        <v>1428563752.7963283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>1500</v>
+      </c>
+      <c r="B93" s="4">
+        <v>101711465.26230919</v>
+      </c>
+      <c r="C93" s="4">
+        <v>4513306.0047565643</v>
+      </c>
+      <c r="D93" s="148">
+        <f t="shared" si="3"/>
+        <v>459054966920968.75</v>
+      </c>
+      <c r="E93" s="107">
+        <f t="shared" si="2"/>
+        <v>4.9394731692124521E-5</v>
+      </c>
+      <c r="F93" s="152">
+        <f t="shared" si="4"/>
+        <v>1543829140.3121519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="B94" s="4">
+        <v>289289548.44649947</v>
+      </c>
+      <c r="C94" s="4">
+        <v>5303549.0395811573</v>
+      </c>
+      <c r="D94" s="148">
+        <f t="shared" si="3"/>
+        <v>1534261306824299</v>
+      </c>
+      <c r="E94" s="107">
+        <f t="shared" si="2"/>
+        <v>4.9922564125364769E-5</v>
+      </c>
+      <c r="F94" s="152">
+        <f t="shared" si="4"/>
+        <v>1664348276.0869086</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B95" s="4">
+        <v>756277378.55116487</v>
+      </c>
+      <c r="C95" s="4">
+        <v>6171474.4556266693</v>
+      </c>
+      <c r="D95" s="148">
+        <f t="shared" si="3"/>
+        <v>4667346523096815</v>
+      </c>
+      <c r="E95" s="107">
+        <f t="shared" si="2"/>
+        <v>5.0528256248207015E-5</v>
+      </c>
+      <c r="F95" s="152">
+        <f t="shared" si="4"/>
+        <v>1789825027.16154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>1800</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1840318838.7006776</v>
+      </c>
+      <c r="C96" s="4">
+        <v>7119473.7822586382</v>
+      </c>
+      <c r="D96" s="148">
+        <f t="shared" si="3"/>
+        <v>1.3102101723126138E+16</v>
+      </c>
+      <c r="E96" s="107">
+        <f t="shared" si="2"/>
+        <v>5.1192168531004263E-5</v>
+      </c>
+      <c r="F96" s="152">
+        <f t="shared" si="4"/>
+        <v>1920009494.7745838</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>1900</v>
+      </c>
+      <c r="B97" s="4">
+        <v>4210442428.0286794</v>
+      </c>
+      <c r="C97" s="4">
+        <v>8149869.1253304556</v>
+      </c>
+      <c r="D97" s="148">
+        <f t="shared" si="3"/>
+        <v>3.4314554748172332E+16</v>
+      </c>
+      <c r="E97" s="107">
+        <f t="shared" si="2"/>
+        <v>5.1899698946292701E-5</v>
+      </c>
+      <c r="F97" s="152">
+        <f t="shared" si="4"/>
+        <v>2054687524.1896851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B98" s="6">
+        <v>9130686730.2751408</v>
+      </c>
+      <c r="C98" s="6">
+        <v>9264918.8863336649</v>
+      </c>
+      <c r="D98" s="149">
+        <f t="shared" si="3"/>
+        <v>8.4595071932522336E+16</v>
+      </c>
+      <c r="E98" s="108">
+        <f t="shared" si="2"/>
+        <v>5.2639842230902176E-5</v>
+      </c>
+      <c r="F98" s="153">
+        <f t="shared" si="4"/>
+        <v>2193673146.7378511</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{59449029-F910-40E9-98C4-DE56E6D9FCDD}"/>
+    <hyperlink ref="A9" r:id="rId1" display="https://kinetics.nist.gov/kinetics/Detail?id=1984WAR197C:14" xr:uid="{59449029-F910-40E9-98C4-DE56E6D9FCDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10859,21 +12551,21 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="14.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -10899,7 +12591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -10927,10 +12619,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="F6" s="24" t="s">
         <v>24</v>
@@ -10942,7 +12634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="F7" s="25">
         <v>11.69031</v>
@@ -10954,7 +12646,7 @@
         <v>3.2853400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -10968,7 +12660,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -10980,7 +12672,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
@@ -11009,7 +12701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="81">
         <v>-1002.6978</v>
       </c>
@@ -11038,7 +12730,7 @@
         <v>3427.0091000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
@@ -11067,7 +12759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9" cm="1">
         <f t="array" ref="B13">Tabella9314721[Frequenza1]*29979300000</f>
         <v>-30060178155540</v>
@@ -11105,7 +12797,7 @@
         <v>102739333911630</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
         <v>38</v>
       </c>
@@ -11140,7 +12832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="34">
         <v>298.14999999999998</v>
       </c>
@@ -11186,7 +12878,7 @@
       </c>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <v>400</v>
       </c>
@@ -11231,7 +12923,7 @@
         <v>1.6141533925174977E-12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="34">
         <v>500</v>
       </c>
@@ -11276,7 +12968,7 @@
         <v>4.725428284870911E-10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="34">
         <v>600</v>
       </c>
@@ -11321,7 +13013,7 @@
         <v>2.3121251036434222E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="34">
         <v>700</v>
       </c>
@@ -11366,7 +13058,7 @@
         <v>4.0792004369423415E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>800</v>
       </c>
@@ -11411,7 +13103,7 @@
         <v>3.8015322009812312E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="34">
         <v>900</v>
       </c>
@@ -11456,7 +13148,7 @@
         <v>2.311069478978391E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="34">
         <v>1000</v>
       </c>
@@ -11501,7 +13193,7 @@
         <v>1.0397641957882253E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="34">
         <v>1100</v>
       </c>
@@ -11546,7 +13238,7 @@
         <v>3.7507891762489723E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="34">
         <v>1200</v>
       </c>
@@ -11591,7 +13283,7 @@
         <v>1.1443454384600764E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="34">
         <v>1300</v>
       </c>
@@ -11636,7 +13328,7 @@
         <v>3.0640322366207481E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="34">
         <v>1400</v>
       </c>
@@ -11681,7 +13373,7 @@
         <v>7.3929454051975168E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="34">
         <v>1500</v>
       </c>
@@ -11726,7 +13418,7 @@
         <v>1.6389905101106605E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="34">
         <v>1600</v>
       </c>
@@ -11771,7 +13463,7 @@
         <v>3.3878990420653406E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="34">
         <v>1700</v>
       </c>
@@ -11816,7 +13508,7 @@
         <v>6.6034125386743511E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="34">
         <v>1800</v>
       </c>
@@ -11861,7 +13553,7 @@
         <v>0.12243816518214697</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="34">
         <v>1900</v>
       </c>
@@ -11906,7 +13598,7 @@
         <v>0.2174798025935821</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="36">
         <v>2000</v>
       </c>
@@ -11951,8 +13643,8 @@
         <v>0.37216032891795631</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="28" t="s">
         <v>38</v>
       </c>
@@ -11978,7 +13670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="102">
         <v>298.14999999999998</v>
       </c>
@@ -12010,7 +13702,7 @@
         <v>5.6588326711403247E-7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>400</v>
       </c>
@@ -12042,7 +13734,7 @@
         <v>2.4615921301987101E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>500</v>
       </c>
@@ -12074,7 +13766,7 @@
         <v>17.59351113097711</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>600</v>
       </c>
@@ -12106,7 +13798,7 @@
         <v>1785.0387849959702</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>700</v>
       </c>
@@ -12138,7 +13830,7 @@
         <v>58344.313183302234</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>800</v>
       </c>
@@ -12170,7 +13862,7 @@
         <v>927576.94945336785</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>900</v>
       </c>
@@ -12202,7 +13894,7 @@
         <v>9032633.0231868774</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>1000</v>
       </c>
@@ -12234,7 +13926,7 @@
         <v>61939284.566470183</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>1100</v>
       </c>
@@ -12266,7 +13958,7 @@
         <v>327133274.61119545</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>1200</v>
       </c>
@@ -12298,7 +13990,7 @@
         <v>1413557415.4637673</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1300</v>
       </c>
@@ -12330,7 +14022,7 @@
         <v>5213124125.2661152</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1400</v>
       </c>
@@ -12362,7 +14054,7 @@
         <v>16918465419.3151</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1500</v>
       </c>
@@ -12394,7 +14086,7 @@
         <v>49427973077.425499</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1600</v>
       </c>
@@ -12426,7 +14118,7 @@
         <v>132264019552.27565</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>1700</v>
       </c>
@@ -12458,7 +14150,7 @@
         <v>328545438462.01135</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>1800</v>
       </c>
@@ -12490,7 +14182,7 @@
         <v>765663879295.60925</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>1900</v>
       </c>
@@ -12522,7 +14214,7 @@
         <v>1688358467213.561</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>2000</v>
       </c>
@@ -12571,21 +14263,21 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37:G54"/>
+      <selection activeCell="G36" sqref="G36:G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="8" max="8" width="12.81640625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -12611,7 +14303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -12639,7 +14331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="24" t="s">
         <v>24</v>
       </c>
@@ -12650,7 +14342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="91">
         <v>14.38284</v>
       </c>
@@ -12661,7 +14353,7 @@
         <v>8.8985500000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -12674,7 +14366,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -12686,7 +14378,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
@@ -12706,7 +14398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>998.66539999999998</v>
       </c>
@@ -12726,7 +14418,7 @@
         <v>3629.2777999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
@@ -12746,7 +14438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="9" cm="1">
         <f t="array" ref="B13">Tabella931473139[Frequenza1]*29979300000</f>
         <v>29939289626220</v>
@@ -12772,7 +14464,7 @@
         <v>108803207949540</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -12798,7 +14490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>298.14999999999998</v>
       </c>
@@ -12831,7 +14523,7 @@
         <v>1.5577139589848961E-16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>400</v>
       </c>
@@ -12864,7 +14556,7 @@
         <v>1.693930939220015E-12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>500</v>
       </c>
@@ -12897,7 +14589,7 @@
         <v>4.0186875203073031E-10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>600</v>
       </c>
@@ -12930,7 +14622,7 @@
         <v>1.5875345463394519E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>700</v>
       </c>
@@ -12963,7 +14655,7 @@
         <v>2.2612465036130632E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>800</v>
       </c>
@@ -12996,7 +14688,7 @@
         <v>1.7066627725621664E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>900</v>
       </c>
@@ -13029,7 +14721,7 @@
         <v>8.446399138574485E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>1000</v>
       </c>
@@ -13062,7 +14754,7 @@
         <v>3.1134972428446222E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>1100</v>
       </c>
@@ -13095,7 +14787,7 @@
         <v>9.267364875081896E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>1200</v>
       </c>
@@ -13128,7 +14820,7 @@
         <v>2.3501064743940676E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>1300</v>
       </c>
@@ -13161,7 +14853,7 @@
         <v>5.2686614876684245E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>1400</v>
       </c>
@@ -13194,7 +14886,7 @@
         <v>1.0720494106508792E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>1500</v>
       </c>
@@ -13227,7 +14919,7 @@
         <v>2.0182259679814539E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>1600</v>
       </c>
@@ -13260,7 +14952,7 @@
         <v>3.5661004786025634E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>1700</v>
       </c>
@@ -13293,7 +14985,7 @@
         <v>5.9790360184880185E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>1800</v>
       </c>
@@ -13326,7 +15018,7 @@
         <v>9.5931503260367219E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>1900</v>
       </c>
@@ -13359,7 +15051,7 @@
         <v>1.4827930509106997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2000</v>
       </c>
@@ -13392,14 +15084,14 @@
         <v>2.2197401144923547E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="45"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="93" t="s">
         <v>38</v>
       </c>
@@ -13422,7 +15114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="56">
         <v>298.14999999999998</v>
       </c>
@@ -13449,7 +15141,7 @@
         <v>9.1446298421469228E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>400</v>
       </c>
@@ -13477,7 +15169,7 @@
       </c>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>500</v>
       </c>
@@ -13505,7 +15197,7 @@
       </c>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>600</v>
       </c>
@@ -13533,7 +15225,7 @@
       </c>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>700</v>
       </c>
@@ -13561,7 +15253,7 @@
       </c>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>800</v>
       </c>
@@ -13589,7 +15281,7 @@
       </c>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>900</v>
       </c>
@@ -13617,7 +15309,7 @@
       </c>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>1000</v>
       </c>
@@ -13645,7 +15337,7 @@
       </c>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>1100</v>
       </c>
@@ -13673,7 +15365,7 @@
       </c>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1200</v>
       </c>
@@ -13701,7 +15393,7 @@
       </c>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1300</v>
       </c>
@@ -13729,7 +15421,7 @@
       </c>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1400</v>
       </c>
@@ -13757,7 +15449,7 @@
       </c>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1500</v>
       </c>
@@ -13785,7 +15477,7 @@
       </c>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>1600</v>
       </c>
@@ -13813,7 +15505,7 @@
       </c>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>1700</v>
       </c>
@@ -13841,7 +15533,7 @@
       </c>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>1800</v>
       </c>
@@ -13869,7 +15561,7 @@
       </c>
       <c r="H52" s="22"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>1900</v>
       </c>
@@ -13897,7 +15589,7 @@
       </c>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>2000</v>
       </c>
@@ -13925,71 +15617,71 @@
       </c>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D55" s="100"/>
       <c r="E55" s="101"/>
       <c r="F55" s="101"/>
       <c r="G55" s="101"/>
       <c r="H55" s="101"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H56" s="22"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H57" s="22"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H58" s="22"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H59" s="22"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H60" s="22"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H61" s="22"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H62" s="22"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H63" s="22"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H64" s="22"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H65" s="22"/>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H66" s="22"/>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H67" s="22"/>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H68" s="22"/>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H69" s="22"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H70" s="22"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H71" s="22"/>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H73" s="22"/>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H75" s="22"/>
     </row>
   </sheetData>
@@ -14006,32 +15698,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1C94E5-B238-4689-8C48-188B02C09FCA}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9"/>
+    <col min="12" max="12" width="19.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="15" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>14</v>
       </c>
@@ -14042,7 +15734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>8.3144626180000003</v>
       </c>
@@ -14053,16 +15745,16 @@
         <v>6.6260687599999996E-34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="63" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>7</v>
@@ -14070,20 +15762,20 @@
       <c r="F4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="H4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="67" t="s">
+      <c r="I4" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="62" t="s">
         <v>3</v>
       </c>
@@ -14102,32 +15794,32 @@
       <c r="F5" s="74">
         <v>-57.046461231999999</v>
       </c>
-      <c r="J5" s="69">
+      <c r="H5" s="69">
         <f>F5+F7-(B5+C5+B7)</f>
         <v>1.8832370300010837E-2</v>
       </c>
-      <c r="K5" s="75">
-        <f>J5*627.5</f>
+      <c r="I5" s="75">
+        <f>H5*627.5</f>
         <v>11.8173123632568</v>
       </c>
-      <c r="M5" s="69">
+      <c r="K5" s="69">
         <f>F5+F7-(D5+E5+D7+E7)</f>
         <v>2.0795164120002596E-2</v>
       </c>
-      <c r="N5" s="76">
-        <f>627.5*M5</f>
+      <c r="L5" s="76">
+        <f>627.5*K5</f>
         <v>13.048965485301629</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="71" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E6" s="71" t="s">
         <v>7</v>
@@ -14135,14 +15827,14 @@
       <c r="F6" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="I6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="L6" s="65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="70" t="s">
         <v>9</v>
       </c>
@@ -14161,36 +15853,43 @@
       <c r="F7" s="73">
         <v>3.2411000000000002E-2</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="11">
-        <f>K5*4.184</f>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11">
+        <f>I5*4.184</f>
         <v>49.443634927866455</v>
       </c>
-      <c r="N7" s="11">
-        <f>N5*4.184</f>
+      <c r="L7" s="11">
+        <f>L5*4.184</f>
         <v>54.596871590502019</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="45.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="79" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="80" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I10" s="80"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="80"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>1</v>
@@ -14199,16 +15898,22 @@
         <v>60</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="F11" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="56">
         <v>298.14999999999998</v>
       </c>
@@ -14221,11 +15926,18 @@
       <c r="D12" s="119">
         <v>5.6588326711403247E-7</v>
       </c>
-      <c r="E12" s="122">
-        <f>H12*EXP(-$K$7*1000/($A$2*A12))</f>
+      <c r="E12" s="132">
+        <f>H12*EXP(-$I$7*1000/($A$2*A12))</f>
         <v>1.4257089380414971E-21</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="106">
+        <f>G12*EXP(-$L$7*1000/($A$2*A12))</f>
+        <v>4.3071140933437215E-22</v>
+      </c>
+      <c r="G12" s="140">
+        <f>0.00000000000158*(A12/298)^2.23</f>
+        <v>1.5817740725297143E-12</v>
+      </c>
       <c r="H12" s="40">
         <f>0.000000000000654*POWER((A12/298),2.76)</f>
         <v>6.5490897968953266E-13</v>
@@ -14234,7 +15946,7 @@
         <v>3.0932940000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>400</v>
       </c>
@@ -14247,20 +15959,27 @@
       <c r="D13" s="120">
         <v>2.4615921301987101E-2</v>
       </c>
-      <c r="E13" s="122">
-        <f t="shared" ref="E13:E29" si="0">H13*EXP(-$K$7*1000/($A$2*A13))</f>
+      <c r="E13" s="132">
+        <f>H13*EXP(-$I$7*1000/($A$2*A13))</f>
         <v>5.1508194256957061E-19</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="107">
+        <f t="shared" ref="F13:F29" si="0">G13*EXP(-$L$7*1000/($A$2*A13))</f>
+        <v>2.2608303390155019E-19</v>
+      </c>
+      <c r="G13" s="123">
+        <f>0.00000000000158*(A13/298)^2.23</f>
+        <v>3.0461311566072351E-12</v>
+      </c>
       <c r="H13" s="40">
-        <f t="shared" ref="H13:H29" si="1">0.000000000000654*POWER((A13/298),2.76)</f>
+        <f>0.000000000000654*POWER((A13/298),2.76)</f>
         <v>1.4737588821245597E-12</v>
       </c>
       <c r="I13" s="123">
         <v>1.82474</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>500</v>
       </c>
@@ -14273,20 +15992,27 @@
       <c r="D14" s="120">
         <v>17.59351113097711</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="132">
+        <f>H14*EXP(-$I$7*1000/($A$2*A14))</f>
+        <v>1.8649104517990277E-17</v>
+      </c>
+      <c r="F14" s="107">
         <f t="shared" si="0"/>
-        <v>1.8649104517990277E-17</v>
-      </c>
-      <c r="F14" s="22"/>
+        <v>9.9145595761006505E-18</v>
+      </c>
+      <c r="G14" s="123">
+        <f>0.00000000000158*(A14/298)^2.23</f>
+        <v>5.0102330531682224E-12</v>
+      </c>
       <c r="H14" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A14/298),2.76)</f>
         <v>2.7283373691153759E-12</v>
       </c>
       <c r="I14" s="123">
         <v>1.4625889999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>600</v>
       </c>
@@ -14299,20 +16025,27 @@
       <c r="D15" s="120">
         <v>1785.0387849959702</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="132">
+        <f>H15*EXP(-$I$7*1000/($A$2*A15))</f>
+        <v>2.2390901018928284E-16</v>
+      </c>
+      <c r="F15" s="107">
         <f t="shared" si="0"/>
-        <v>2.2390901018928284E-16</v>
-      </c>
-      <c r="F15" s="22"/>
+        <v>1.3287553381832148E-16</v>
+      </c>
+      <c r="G15" s="123">
+        <f>0.00000000000158*(A15/298)^2.23</f>
+        <v>7.5237110224412325E-12</v>
+      </c>
       <c r="H15" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A15/298),2.76)</f>
         <v>4.5127191975640752E-12</v>
       </c>
       <c r="I15" s="123">
         <v>1.302735</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>700</v>
       </c>
@@ -14325,20 +16058,27 @@
       <c r="D16" s="120">
         <v>58344.313183302234</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="132">
+        <f>H16*EXP(-$I$7*1000/($A$2*A16))</f>
+        <v>1.411738451809217E-15</v>
+      </c>
+      <c r="F16" s="107">
         <f t="shared" si="0"/>
-        <v>1.411738451809217E-15</v>
-      </c>
-      <c r="F16" s="22"/>
+        <v>8.9481760096942688E-16</v>
+      </c>
+      <c r="G16" s="123">
+        <f>0.00000000000158*(A16/298)^2.23</f>
+        <v>1.0610196994014158E-11</v>
+      </c>
       <c r="H16" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A16/298),2.76)</f>
         <v>6.9057595059981798E-12</v>
       </c>
       <c r="I16" s="123">
         <v>1.2162109999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>800</v>
       </c>
@@ -14351,20 +16091,27 @@
       <c r="D17" s="120">
         <v>927576.94945336774</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="132">
+        <f>H17*EXP(-$I$7*1000/($A$2*A17))</f>
+        <v>5.9019315495846889E-15</v>
+      </c>
+      <c r="F17" s="107">
         <f t="shared" si="0"/>
-        <v>5.9019315495846889E-15</v>
-      </c>
-      <c r="F17" s="22"/>
+        <v>3.8931862060206246E-15</v>
+      </c>
+      <c r="G17" s="123">
+        <f>0.00000000000158*(A17/298)^2.23</f>
+        <v>1.4290436321652367E-11</v>
+      </c>
       <c r="H17" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A17/298),2.76)</f>
         <v>9.9831873999328696E-12</v>
       </c>
       <c r="I17" s="123">
         <v>1.1634370000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>900</v>
       </c>
@@ -14377,20 +16124,27 @@
       <c r="D18" s="120">
         <v>9032633.0231868774</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="132">
+        <f>H18*EXP(-$I$7*1000/($A$2*A18))</f>
+        <v>1.8658312326916938E-14</v>
+      </c>
+      <c r="F18" s="107">
         <f t="shared" si="0"/>
-        <v>1.8658312326916938E-14</v>
-      </c>
-      <c r="F18" s="22"/>
+        <v>1.2602524721105986E-14</v>
+      </c>
+      <c r="G18" s="123">
+        <f>0.00000000000158*(A18/298)^2.23</f>
+        <v>1.8582990895326843E-11</v>
+      </c>
       <c r="H18" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A18/298),2.76)</f>
         <v>1.3818158996745685E-11</v>
       </c>
       <c r="I18" s="123">
         <v>1.128601</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>1000</v>
       </c>
@@ -14403,20 +16157,27 @@
       <c r="D19" s="120">
         <v>61939284.566470183</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="132">
+        <f>H19*EXP(-$I$7*1000/($A$2*A19))</f>
+        <v>4.8319320157339335E-14</v>
+      </c>
+      <c r="F19" s="107">
         <f t="shared" si="0"/>
-        <v>4.8319320157339335E-14</v>
-      </c>
-      <c r="F19" s="22"/>
+        <v>3.3064546279942024E-14</v>
+      </c>
+      <c r="G19" s="123">
+        <f>0.00000000000158*(A19/298)^2.23</f>
+        <v>2.350470571420974E-11</v>
+      </c>
       <c r="H19" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A19/298),2.76)</f>
         <v>1.8481655022735634E-11</v>
       </c>
       <c r="I19" s="123">
         <v>1.1042689999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1100</v>
       </c>
@@ -14429,20 +16190,27 @@
       <c r="D20" s="120">
         <v>327133274.61119545</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="132">
+        <f>H20*EXP(-$I$7*1000/($A$2*A20))</f>
+        <v>1.0793151338253666E-13</v>
+      </c>
+      <c r="F20" s="107">
         <f t="shared" si="0"/>
-        <v>1.0793151338253666E-13</v>
-      </c>
-      <c r="F20" s="22"/>
+        <v>7.4288586738883506E-14</v>
+      </c>
+      <c r="G20" s="123">
+        <f>0.00000000000158*(A20/298)^2.23</f>
+        <v>2.9071035801589485E-11</v>
+      </c>
       <c r="H20" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A20/298),2.76)</f>
         <v>2.4042779336194009E-11</v>
       </c>
       <c r="I20" s="123">
         <v>1.086535</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1200</v>
       </c>
@@ -14455,20 +16223,27 @@
       <c r="D21" s="120">
         <v>1413557415.4637673</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="132">
+        <f>H21*EXP(-$I$7*1000/($A$2*A21))</f>
+        <v>2.1532662250977178E-13</v>
+      </c>
+      <c r="F21" s="107">
         <f t="shared" si="0"/>
-        <v>2.1532662250977178E-13</v>
-      </c>
-      <c r="F21" s="22"/>
+        <v>1.4833220568287421E-13</v>
+      </c>
+      <c r="G21" s="123">
+        <f>0.00000000000158*(A21/298)^2.23</f>
+        <v>3.5296284940160764E-11</v>
+      </c>
       <c r="H21" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A21/298),2.76)</f>
         <v>3.056899061236612E-11</v>
       </c>
       <c r="I21" s="123">
         <v>1.0731729999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1300</v>
       </c>
@@ -14481,20 +16256,27 @@
       <c r="D22" s="120">
         <v>5213124125.2661152</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="132">
+        <f>H22*EXP(-$I$7*1000/($A$2*A22))</f>
+        <v>3.9318207342206497E-13</v>
+      </c>
+      <c r="F22" s="107">
         <f t="shared" si="0"/>
-        <v>3.9318207342206497E-13</v>
-      </c>
-      <c r="F22" s="22"/>
+        <v>2.7012336249837178E-13</v>
+      </c>
+      <c r="G22" s="123">
+        <f>0.00000000000158*(A22/298)^2.23</f>
+        <v>4.2193785789448038E-11</v>
+      </c>
       <c r="H22" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A22/298),2.76)</f>
         <v>3.812628692017352E-11</v>
       </c>
       <c r="I22" s="123">
         <v>1.0628299999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1400</v>
       </c>
@@ -14507,20 +16289,27 @@
       <c r="D23" s="120">
         <v>16918465419.315102</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="132">
+        <f>H23*EXP(-$I$7*1000/($A$2*A23))</f>
+        <v>6.6884523115444438E-13</v>
+      </c>
+      <c r="F23" s="107">
         <f t="shared" si="0"/>
-        <v>6.6884523115444438E-13</v>
-      </c>
-      <c r="F23" s="22"/>
+        <v>4.5711542135285512E-13</v>
+      </c>
+      <c r="G23" s="123">
+        <f>0.00000000000158*(A23/298)^2.23</f>
+        <v>4.977603941125932E-11</v>
+      </c>
       <c r="H23" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A23/298),2.76)</f>
         <v>4.6779355920055368E-11</v>
       </c>
       <c r="I23" s="123">
         <v>1.054646</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>1500</v>
       </c>
@@ -14533,20 +16322,27 @@
       <c r="D24" s="120">
         <v>49427973077.425499</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="132">
+        <f>H24*EXP(-$I$7*1000/($A$2*A24))</f>
+        <v>1.0740043448737622E-12</v>
+      </c>
+      <c r="F24" s="107">
         <f t="shared" si="0"/>
-        <v>1.0740043448737622E-12</v>
-      </c>
-      <c r="F24" s="22"/>
+        <v>7.2885895175761167E-13</v>
+      </c>
+      <c r="G24" s="123">
+        <f>0.00000000000158*(A24/298)^2.23</f>
+        <v>5.8054825734491176E-11</v>
+      </c>
       <c r="H24" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A24/298),2.76)</f>
         <v>5.6591699249759987E-11</v>
       </c>
       <c r="I24" s="123">
         <v>1.048049</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>1600</v>
       </c>
@@ -14559,20 +16355,27 @@
       <c r="D25" s="120">
         <v>132264019552.27567</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="132">
+        <f>H25*EXP(-$I$7*1000/($A$2*A25))</f>
+        <v>1.6442751144773092E-12</v>
+      </c>
+      <c r="F25" s="107">
         <f t="shared" si="0"/>
-        <v>1.6442751144773092E-12</v>
-      </c>
-      <c r="F25" s="22"/>
+        <v>1.1065530073759298E-12</v>
+      </c>
+      <c r="G25" s="123">
+        <f>0.00000000000158*(A25/298)^2.23</f>
+        <v>6.704129263122617E-11</v>
+      </c>
       <c r="H25" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A25/298),2.76)</f>
         <v>6.7625737066638398E-11</v>
       </c>
       <c r="I25" s="123">
         <v>1.042645</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>1700</v>
       </c>
@@ -14585,20 +16388,27 @@
       <c r="D26" s="120">
         <v>328545438462.01135</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="132">
+        <f>H26*EXP(-$I$7*1000/($A$2*A26))</f>
+        <v>2.4187535576738806E-12</v>
+      </c>
+      <c r="F26" s="107">
         <f t="shared" si="0"/>
-        <v>2.4187535576738806E-12</v>
-      </c>
-      <c r="F26" s="22"/>
+        <v>1.6126163529749086E-12</v>
+      </c>
+      <c r="G26" s="123">
+        <f>0.00000000000158*(A26/298)^2.23</f>
+        <v>7.6746028878398422E-11</v>
+      </c>
       <c r="H26" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A26/298),2.76)</f>
         <v>7.9942897026871837E-11</v>
       </c>
       <c r="I26" s="123">
         <v>1.0381590000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1800</v>
       </c>
@@ -14611,20 +16421,27 @@
       <c r="D27" s="120">
         <v>765663879295.60925</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="132">
+        <f>H27*EXP(-$I$7*1000/($A$2*A27))</f>
+        <v>3.4395692691420483E-12</v>
+      </c>
+      <c r="F27" s="107">
         <f t="shared" si="0"/>
-        <v>3.4395692691420483E-12</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>2.2703011879727305E-12</v>
+      </c>
+      <c r="G27" s="123">
+        <f>0.00000000000158*(A27/298)^2.23</f>
+        <v>8.7179124733188507E-11</v>
+      </c>
       <c r="H27" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A27/298),2.76)</f>
         <v>9.360369084779583E-11</v>
       </c>
       <c r="I27" s="123">
         <v>1.0343899999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1900</v>
       </c>
@@ -14637,20 +16454,27 @@
       <c r="D28" s="120">
         <v>1688358467213.5608</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="132">
+        <f>H28*EXP(-$I$7*1000/($A$2*A28))</f>
+        <v>4.7514601431102343E-12</v>
+      </c>
+      <c r="F28" s="107">
         <f t="shared" si="0"/>
-        <v>4.7514601431102343E-12</v>
-      </c>
-      <c r="F28" s="22"/>
+        <v>3.1033592880143244E-12</v>
+      </c>
+      <c r="G28" s="123">
+        <f>0.00000000000158*(A28/298)^2.23</f>
+        <v>9.8350222821162809E-11</v>
+      </c>
       <c r="H28" s="40">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A28/298),2.76)</f>
         <v>1.0866778081520027E-10</v>
       </c>
       <c r="I28" s="123">
         <v>1.0311900000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>2000</v>
       </c>
@@ -14663,29 +16487,36 @@
       <c r="D29" s="121">
         <v>3547164960759.314</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="132">
+        <f>H29*EXP(-$I$7*1000/($A$2*A29))</f>
+        <v>6.4013802468113065E-12</v>
+      </c>
+      <c r="F29" s="108">
         <f t="shared" si="0"/>
-        <v>6.4013802468113065E-12</v>
-      </c>
-      <c r="F29" s="22"/>
+        <v>4.1357624249187016E-12</v>
+      </c>
+      <c r="G29" s="11">
+        <f>0.00000000000158*(A29/298)^2.23</f>
+        <v>1.1026856133214164E-10</v>
+      </c>
       <c r="H29" s="41">
-        <f t="shared" si="1"/>
+        <f>0.000000000000654*POWER((A29/298),2.76)</f>
         <v>1.25194038041622E-10</v>
       </c>
       <c r="I29" s="11">
         <v>1.0284469999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="109" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B32" s="110" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="111">
         <v>1.1499999999999999</v>
       </c>
@@ -14693,7 +16524,7 @@
         <v>-57.058603976599997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="113">
         <v>1.2</v>
       </c>
@@ -14701,7 +16532,7 @@
         <v>-57.048816772000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="113">
         <v>1.3</v>
       </c>
@@ -14709,7 +16540,7 @@
         <v>-57.046689035599996</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="115">
         <v>1.4</v>
       </c>
@@ -14717,16 +16548,452 @@
         <v>-57.046790841000004</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="26" x14ac:dyDescent="0.6">
       <c r="A51" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="82" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="I51" s="82"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="128" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="56">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="B77" s="57">
+        <v>9.1446298421469228E-8</v>
+      </c>
+      <c r="C77" s="58">
+        <v>79497.535716311773</v>
+      </c>
+      <c r="D77" s="58">
+        <f t="shared" ref="D77:D94" si="1">B77*C77</f>
+        <v>7.2697553748852549E-3</v>
+      </c>
+      <c r="E77" s="145">
+        <f t="shared" ref="E77:E94" si="2">D12/D77</f>
+        <v>7.7840757760430738E-5</v>
+      </c>
+      <c r="F77" s="142">
+        <f t="shared" ref="F77:F94" si="3">$B$2*A12/$C$2*E77</f>
+        <v>483580982.25177646</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>400</v>
+      </c>
+      <c r="B78" s="4">
+        <v>3.2216238368218664E-3</v>
+      </c>
+      <c r="C78" s="54">
+        <v>165735.90748691262</v>
+      </c>
+      <c r="D78" s="54">
+        <f t="shared" si="1"/>
+        <v>533.93875017714129</v>
+      </c>
+      <c r="E78" s="146">
+        <f t="shared" si="2"/>
+        <v>4.6102518863484703E-5</v>
+      </c>
+      <c r="F78" s="143">
+        <f t="shared" si="3"/>
+        <v>384248331.08041155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>500</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1.8659646839350816</v>
+      </c>
+      <c r="C79" s="54">
+        <v>289528.71519792947</v>
+      </c>
+      <c r="D79" s="54">
+        <f t="shared" si="1"/>
+        <v>540250.35754443472</v>
+      </c>
+      <c r="E79" s="146">
+        <f t="shared" si="2"/>
+        <v>3.2565477996060502E-5</v>
+      </c>
+      <c r="F79" s="143">
+        <f t="shared" si="3"/>
+        <v>339277301.95923096</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>600</v>
+      </c>
+      <c r="B80" s="4">
+        <v>152.85067134593675</v>
+      </c>
+      <c r="C80" s="54">
+        <v>456714.45607505803</v>
+      </c>
+      <c r="D80" s="54">
+        <f t="shared" si="1"/>
+        <v>69809111.224466965</v>
+      </c>
+      <c r="E80" s="146">
+        <f t="shared" si="2"/>
+        <v>2.5570283787975559E-5</v>
+      </c>
+      <c r="F80" s="143">
+        <f t="shared" si="3"/>
+        <v>319679025.56071275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>700</v>
+      </c>
+      <c r="B81" s="4">
+        <v>4033.473729606339</v>
+      </c>
+      <c r="C81" s="54">
+        <v>671446.99161483813</v>
+      </c>
+      <c r="D81" s="54">
+        <f t="shared" si="1"/>
+        <v>2708263801.5016575</v>
+      </c>
+      <c r="E81" s="146">
+        <f t="shared" si="2"/>
+        <v>2.1543068718398824E-5</v>
+      </c>
+      <c r="F81" s="143">
+        <f t="shared" si="3"/>
+        <v>314219368.25919741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>800</v>
+      </c>
+      <c r="B82" s="4">
+        <v>51933.408544123187</v>
+      </c>
+      <c r="C82" s="54">
+        <v>937543.87256082019</v>
+      </c>
+      <c r="D82" s="54">
+        <f t="shared" si="1"/>
+        <v>48689848961.74044</v>
+      </c>
+      <c r="E82" s="146">
+        <f t="shared" si="2"/>
+        <v>1.9050725546144949E-5</v>
+      </c>
+      <c r="F82" s="143">
+        <f t="shared" si="3"/>
+        <v>317562236.39984661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>900</v>
+      </c>
+      <c r="B83" s="4">
+        <v>411699.93876221246</v>
+      </c>
+      <c r="C83" s="54">
+        <v>1258557.0474787266</v>
+      </c>
+      <c r="D83" s="54">
+        <f t="shared" si="1"/>
+        <v>518147859375.74268</v>
+      </c>
+      <c r="E83" s="146">
+        <f t="shared" si="2"/>
+        <v>1.7432539495713188E-5</v>
+      </c>
+      <c r="F83" s="143">
+        <f t="shared" si="3"/>
+        <v>326911735.82079202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2313064.0018442604</v>
+      </c>
+      <c r="C84" s="54">
+        <v>1637821.7429174811</v>
+      </c>
+      <c r="D84" s="54">
+        <f t="shared" si="1"/>
+        <v>3788386514980.2505</v>
+      </c>
+      <c r="E84" s="146">
+        <f t="shared" si="2"/>
+        <v>1.6349779601829536E-5</v>
+      </c>
+      <c r="F84" s="143">
+        <f t="shared" si="3"/>
+        <v>340674201.77943259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>1100</v>
+      </c>
+      <c r="B85" s="4">
+        <v>10080130.794608956</v>
+      </c>
+      <c r="C85" s="54">
+        <v>2078491.9421937331</v>
+      </c>
+      <c r="D85" s="54">
+        <f t="shared" si="1"/>
+        <v>20951470632853.629</v>
+      </c>
+      <c r="E85" s="146">
+        <f t="shared" si="2"/>
+        <v>1.5613857391863634E-5</v>
+      </c>
+      <c r="F85" s="143">
+        <f t="shared" si="3"/>
+        <v>357874074.54614234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B86" s="4">
+        <v>36203594.125126719</v>
+      </c>
+      <c r="C86" s="54">
+        <v>2583567.1116527999</v>
+      </c>
+      <c r="D86" s="54">
+        <f t="shared" si="1"/>
+        <v>93534415105303.906</v>
+      </c>
+      <c r="E86" s="146">
+        <f t="shared" si="2"/>
+        <v>1.5112698506451782E-5</v>
+      </c>
+      <c r="F86" s="143">
+        <f t="shared" si="3"/>
+        <v>377877130.51563591</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B87" s="4">
+        <v>111792551.78014818</v>
+      </c>
+      <c r="C87" s="54">
+        <v>3155912.9323251243</v>
+      </c>
+      <c r="D87" s="54">
+        <f t="shared" si="1"/>
+        <v>352807559900595.75</v>
+      </c>
+      <c r="E87" s="146">
+        <f t="shared" si="2"/>
+        <v>1.4776112299676694E-5</v>
+      </c>
+      <c r="F87" s="143">
+        <f t="shared" si="3"/>
+        <v>400249575.30877221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B88" s="4">
+        <v>305961026.56061155</v>
+      </c>
+      <c r="C88" s="54">
+        <v>3798277.7678252826</v>
+      </c>
+      <c r="D88" s="54">
+        <f t="shared" si="1"/>
+        <v>1162124965006171.8</v>
+      </c>
+      <c r="E88" s="146">
+        <f t="shared" si="2"/>
+        <v>1.4558215276982069E-5</v>
+      </c>
+      <c r="F88" s="143">
+        <f t="shared" si="3"/>
+        <v>424681670.66726953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="B89" s="4">
+        <v>759056302.02731967</v>
+      </c>
+      <c r="C89" s="54">
+        <v>4513306.0047565643</v>
+      </c>
+      <c r="D89" s="54">
+        <f t="shared" si="1"/>
+        <v>3425853365888214</v>
+      </c>
+      <c r="E89" s="146">
+        <f t="shared" si="2"/>
+        <v>1.4427930152991359E-5</v>
+      </c>
+      <c r="F89" s="143">
+        <f t="shared" si="3"/>
+        <v>450944022.60166186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>1600</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1736251646.5897975</v>
+      </c>
+      <c r="C90" s="54">
+        <v>5303549.0395811573</v>
+      </c>
+      <c r="D90" s="54">
+        <f t="shared" si="1"/>
+        <v>9208295752742524</v>
+      </c>
+      <c r="E90" s="146">
+        <f t="shared" si="2"/>
+        <v>1.4363572055435255E-5</v>
+      </c>
+      <c r="F90" s="143">
+        <f t="shared" si="3"/>
+        <v>478861348.72562671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3709932598.2867188</v>
+      </c>
+      <c r="C91" s="54">
+        <v>6171474.4556266693</v>
+      </c>
+      <c r="D91" s="54">
+        <f t="shared" si="1"/>
+        <v>2.2895754262423164E+16</v>
+      </c>
+      <c r="E91" s="146">
+        <f t="shared" si="2"/>
+        <v>1.4349622846940876E-5</v>
+      </c>
+      <c r="F91" s="143">
+        <f t="shared" si="3"/>
+        <v>508296070.53172702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>1800</v>
+      </c>
+      <c r="B92" s="4">
+        <v>7481530222.7027588</v>
+      </c>
+      <c r="C92" s="54">
+        <v>7119473.7822586382</v>
+      </c>
+      <c r="D92" s="54">
+        <f t="shared" si="1"/>
+        <v>5.326455827170792E+16</v>
+      </c>
+      <c r="E92" s="146">
+        <f t="shared" si="2"/>
+        <v>1.43747344226508E-5</v>
+      </c>
+      <c r="F92" s="143">
+        <f t="shared" si="3"/>
+        <v>539137672.19368756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>1900</v>
+      </c>
+      <c r="B93" s="4">
+        <v>14356021832.60408</v>
+      </c>
+      <c r="C93" s="54">
+        <v>8149869.1253304556</v>
+      </c>
+      <c r="D93" s="54">
+        <f t="shared" si="1"/>
+        <v>1.1699969909610994E+17</v>
+      </c>
+      <c r="E93" s="146">
+        <f t="shared" si="2"/>
+        <v>1.4430451362329154E-5</v>
+      </c>
+      <c r="F93" s="143">
+        <f t="shared" si="3"/>
+        <v>571295575.5925771</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B94" s="6">
+        <v>26385253889.434925</v>
+      </c>
+      <c r="C94" s="55">
+        <v>9264918.8863336649</v>
+      </c>
+      <c r="D94" s="55">
+        <f t="shared" si="1"/>
+        <v>2.4445723708093443E+17</v>
+      </c>
+      <c r="E94" s="147">
+        <f t="shared" si="2"/>
+        <v>1.4510370006288361E-5</v>
+      </c>
+      <c r="F94" s="144">
+        <f t="shared" si="3"/>
+        <v>604694233.17037904</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{1EFD8431-201B-4D94-A91F-C067A0E188B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>